--- a/Millennium_Important_Documentation/MILL_DATA_STRUCTURES_igs_V2_2020(DRAFT).xlsx
+++ b/Millennium_Important_Documentation/MILL_DATA_STRUCTURES_igs_V2_2020(DRAFT).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\105864\Documents\Millennium\Millennium_Important_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C83BD81-4B81-4F43-B8DD-10F8074CADEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342863C2-A326-45DD-8A55-776DCE7D28DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="25005" yWindow="5940" windowWidth="9600" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUEUE" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="2348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="2353">
   <si>
     <t>Queue 1</t>
   </si>
@@ -7501,6 +7501,21 @@
   </si>
   <si>
     <t>Channel of the transaction (from Olimpo or Not from Olimpo)</t>
+  </si>
+  <si>
+    <t>Control/sequence</t>
+  </si>
+  <si>
+    <t>Type/SubType</t>
+  </si>
+  <si>
+    <t>Checksum</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Terminal Number</t>
   </si>
 </sst>
 </file>
@@ -10048,6 +10063,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10057,56 +10078,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10115,6 +10115,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10144,40 +10156,55 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10186,19 +10213,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10210,12 +10231,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10225,10 +10240,13 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10240,6 +10258,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -10249,15 +10273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10266,6 +10281,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10304,39 +10352,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10684,8 +10699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O834"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M202" sqref="M202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10704,10 +10719,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="520" t="s">
+      <c r="C2" s="522" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="520"/>
+      <c r="D2" s="522"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -11671,7 +11686,7 @@
       <c r="K80" s="517"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="518" t="s">
+      <c r="A81" s="520" t="s">
         <v>74</v>
       </c>
       <c r="B81" s="2">
@@ -11694,7 +11709,7 @@
       <c r="K81" s="517"/>
     </row>
     <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="518"/>
+      <c r="A82" s="520"/>
       <c r="B82" s="2">
         <v>80</v>
       </c>
@@ -11713,7 +11728,7 @@
       <c r="K82" s="517"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" s="518" t="s">
+      <c r="A83" s="520" t="s">
         <v>70</v>
       </c>
       <c r="B83" s="2">
@@ -11738,7 +11753,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="518"/>
+      <c r="A84" s="520"/>
       <c r="B84" s="2">
         <v>82</v>
       </c>
@@ -11757,7 +11772,7 @@
       <c r="K84" s="517"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="518" t="s">
+      <c r="A85" s="520" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="2">
@@ -11780,7 +11795,7 @@
       <c r="K85" s="517"/>
     </row>
     <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="518"/>
+      <c r="A86" s="520"/>
       <c r="B86" s="2">
         <v>84</v>
       </c>
@@ -11799,7 +11814,7 @@
       <c r="K86" s="517"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="518" t="s">
+      <c r="A87" s="520" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="2">
@@ -11824,7 +11839,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="518"/>
+      <c r="A88" s="520"/>
       <c r="B88" s="2">
         <v>86</v>
       </c>
@@ -13328,10 +13343,10 @@
         <v>93</v>
       </c>
       <c r="J159" s="6"/>
-      <c r="K159" s="521">
+      <c r="K159" s="519">
         <v>24</v>
       </c>
-      <c r="L159" s="522" t="s">
+      <c r="L159" s="518" t="s">
         <v>2340</v>
       </c>
     </row>
@@ -13351,8 +13366,8 @@
         <v>94</v>
       </c>
       <c r="J160" s="4"/>
-      <c r="K160" s="521"/>
-      <c r="L160" s="522"/>
+      <c r="K160" s="519"/>
+      <c r="L160" s="518"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B161" s="2">
@@ -13370,8 +13385,8 @@
         <v>95</v>
       </c>
       <c r="J161" s="4"/>
-      <c r="K161" s="521"/>
-      <c r="L161" s="522"/>
+      <c r="K161" s="519"/>
+      <c r="L161" s="518"/>
     </row>
     <row r="162" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B162" s="2">
@@ -13389,8 +13404,8 @@
         <v>96</v>
       </c>
       <c r="J162" s="5"/>
-      <c r="K162" s="521"/>
-      <c r="L162" s="522"/>
+      <c r="K162" s="519"/>
+      <c r="L162" s="518"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B163" s="2">
@@ -13413,7 +13428,7 @@
       <c r="K163" s="517">
         <v>25</v>
       </c>
-      <c r="L163" s="522" t="s">
+      <c r="L163" s="518" t="s">
         <v>2342</v>
       </c>
     </row>
@@ -13434,7 +13449,7 @@
       </c>
       <c r="J164" s="4"/>
       <c r="K164" s="517"/>
-      <c r="L164" s="522"/>
+      <c r="L164" s="518"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B165" s="2">
@@ -13455,7 +13470,7 @@
       </c>
       <c r="J165" s="4"/>
       <c r="K165" s="517"/>
-      <c r="L165" s="522"/>
+      <c r="L165" s="518"/>
     </row>
     <row r="166" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B166" s="2">
@@ -13474,7 +13489,7 @@
       </c>
       <c r="J166" s="5"/>
       <c r="K166" s="517"/>
-      <c r="L166" s="522"/>
+      <c r="L166" s="518"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B167" s="2">
@@ -13497,7 +13512,7 @@
       <c r="K167" s="517">
         <v>26</v>
       </c>
-      <c r="L167" s="522" t="s">
+      <c r="L167" s="518" t="s">
         <v>2341</v>
       </c>
     </row>
@@ -13518,7 +13533,7 @@
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="517"/>
-      <c r="L168" s="522"/>
+      <c r="L168" s="518"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B169" s="2">
@@ -13539,7 +13554,7 @@
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="517"/>
-      <c r="L169" s="522"/>
+      <c r="L169" s="518"/>
     </row>
     <row r="170" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B170" s="2">
@@ -13558,7 +13573,7 @@
       </c>
       <c r="J170" s="5"/>
       <c r="K170" s="517"/>
-      <c r="L170" s="522"/>
+      <c r="L170" s="518"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
@@ -13720,7 +13735,7 @@
       <c r="K178" s="517"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A179" s="518" t="s">
+      <c r="A179" s="520" t="s">
         <v>2</v>
       </c>
       <c r="B179" s="2">
@@ -13745,7 +13760,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A180" s="518"/>
+      <c r="A180" s="520"/>
       <c r="B180" s="2">
         <v>178</v>
       </c>
@@ -13764,7 +13779,7 @@
       <c r="K180" s="517"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A181" s="518"/>
+      <c r="A181" s="520"/>
       <c r="B181" s="2">
         <v>179</v>
       </c>
@@ -13783,7 +13798,7 @@
       <c r="K181" s="517"/>
     </row>
     <row r="182" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="518"/>
+      <c r="A182" s="520"/>
       <c r="B182" s="2">
         <v>180</v>
       </c>
@@ -13802,7 +13817,7 @@
       <c r="K182" s="517"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A183" s="518" t="s">
+      <c r="A183" s="520" t="s">
         <v>3</v>
       </c>
       <c r="B183" s="2">
@@ -13827,7 +13842,7 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A184" s="518"/>
+      <c r="A184" s="520"/>
       <c r="B184" s="2">
         <v>182</v>
       </c>
@@ -13846,7 +13861,7 @@
       <c r="K184" s="517"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A185" s="518"/>
+      <c r="A185" s="520"/>
       <c r="B185" s="2">
         <v>183</v>
       </c>
@@ -13865,7 +13880,7 @@
       <c r="K185" s="517"/>
     </row>
     <row r="186" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="518"/>
+      <c r="A186" s="520"/>
       <c r="B186" s="2">
         <v>184</v>
       </c>
@@ -13884,7 +13899,7 @@
       <c r="K186" s="517"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A187" s="518" t="s">
+      <c r="A187" s="520" t="s">
         <v>4</v>
       </c>
       <c r="B187" s="2">
@@ -13909,7 +13924,7 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A188" s="518"/>
+      <c r="A188" s="520"/>
       <c r="B188" s="2">
         <v>186</v>
       </c>
@@ -13928,7 +13943,7 @@
       <c r="K188" s="517"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A189" s="518"/>
+      <c r="A189" s="520"/>
       <c r="B189" s="2">
         <v>187</v>
       </c>
@@ -13947,7 +13962,7 @@
       <c r="K189" s="517"/>
     </row>
     <row r="190" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="518"/>
+      <c r="A190" s="520"/>
       <c r="B190" s="2">
         <v>188</v>
       </c>
@@ -13966,7 +13981,7 @@
       <c r="K190" s="517"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A191" s="518" t="s">
+      <c r="A191" s="520" t="s">
         <v>5</v>
       </c>
       <c r="B191" s="2">
@@ -13991,7 +14006,7 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A192" s="518"/>
+      <c r="A192" s="520"/>
       <c r="B192" s="2">
         <v>190</v>
       </c>
@@ -14008,8 +14023,8 @@
       <c r="J192" s="4"/>
       <c r="K192" s="517"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A193" s="518"/>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A193" s="520"/>
       <c r="B193" s="2">
         <v>191</v>
       </c>
@@ -14027,8 +14042,8 @@
       <c r="J193" s="4"/>
       <c r="K193" s="517"/>
     </row>
-    <row r="194" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="518"/>
+    <row r="194" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="520"/>
       <c r="B194" s="2">
         <v>192</v>
       </c>
@@ -14046,8 +14061,8 @@
       <c r="J194" s="5"/>
       <c r="K194" s="517"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A195" s="518" t="s">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A195" s="520" t="s">
         <v>1</v>
       </c>
       <c r="B195" s="2">
@@ -14070,9 +14085,15 @@
       <c r="K195" s="517">
         <v>33</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A196" s="518"/>
+      <c r="L195" t="s">
+        <v>2348</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A196" s="520"/>
       <c r="B196" s="2">
         <v>194</v>
       </c>
@@ -14089,9 +14110,15 @@
       </c>
       <c r="J196" s="8"/>
       <c r="K196" s="517"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A197" s="518"/>
+      <c r="L196" t="s">
+        <v>2349</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A197" s="520"/>
       <c r="B197" s="2">
         <v>195</v>
       </c>
@@ -14108,9 +14135,15 @@
       </c>
       <c r="J197" s="8"/>
       <c r="K197" s="517"/>
-    </row>
-    <row r="198" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="518"/>
+      <c r="L197" t="s">
+        <v>2350</v>
+      </c>
+      <c r="M197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="520"/>
       <c r="B198" s="2">
         <v>196</v>
       </c>
@@ -14127,9 +14160,15 @@
       </c>
       <c r="J198" s="9"/>
       <c r="K198" s="517"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A199" s="519" t="s">
+      <c r="L198" t="s">
+        <v>2350</v>
+      </c>
+      <c r="M198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A199" s="521" t="s">
         <v>13</v>
       </c>
       <c r="B199" s="2">
@@ -14150,9 +14189,15 @@
       <c r="K199" s="517">
         <v>34</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A200" s="519"/>
+      <c r="L199" t="s">
+        <v>2351</v>
+      </c>
+      <c r="M199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A200" s="521"/>
       <c r="B200" s="2">
         <v>198</v>
       </c>
@@ -14169,9 +14214,15 @@
       </c>
       <c r="J200" s="4"/>
       <c r="K200" s="517"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A201" s="519"/>
+      <c r="L200" t="s">
+        <v>2351</v>
+      </c>
+      <c r="M200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A201" s="521"/>
       <c r="B201" s="2">
         <v>199</v>
       </c>
@@ -14188,9 +14239,15 @@
       </c>
       <c r="J201" s="4"/>
       <c r="K201" s="517"/>
-    </row>
-    <row r="202" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="519"/>
+      <c r="L201" t="s">
+        <v>2351</v>
+      </c>
+      <c r="M201">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="521"/>
       <c r="B202" s="2">
         <v>200</v>
       </c>
@@ -14207,8 +14264,17 @@
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="517"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L202" t="s">
+        <v>2352</v>
+      </c>
+      <c r="M202">
+        <v>8</v>
+      </c>
+      <c r="N202">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B203" s="2">
         <v>201</v>
       </c>
@@ -14227,8 +14293,17 @@
       <c r="K203" s="517">
         <v>35</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L203" s="364" t="s">
+        <v>2352</v>
+      </c>
+      <c r="M203">
+        <v>9</v>
+      </c>
+      <c r="N203">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B204" s="2">
         <v>202</v>
       </c>
@@ -14246,7 +14321,7 @@
       <c r="J204" s="8"/>
       <c r="K204" s="517"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B205" s="2">
         <v>203</v>
       </c>
@@ -14264,7 +14339,7 @@
       <c r="J205" s="8"/>
       <c r="K205" s="517"/>
     </row>
-    <row r="206" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B206" s="2">
         <v>204</v>
       </c>
@@ -14282,7 +14357,7 @@
       <c r="J206" s="9"/>
       <c r="K206" s="517"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B207" s="2">
         <v>205</v>
       </c>
@@ -14302,7 +14377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B208" s="2">
         <v>206</v>
       </c>
@@ -25920,6 +25995,188 @@
     </row>
   </sheetData>
   <mergeCells count="206">
+    <mergeCell ref="K811:K814"/>
+    <mergeCell ref="K815:K818"/>
+    <mergeCell ref="K819:K822"/>
+    <mergeCell ref="K823:K826"/>
+    <mergeCell ref="K827:K830"/>
+    <mergeCell ref="K831:K834"/>
+    <mergeCell ref="K775:K778"/>
+    <mergeCell ref="K779:K782"/>
+    <mergeCell ref="K783:K786"/>
+    <mergeCell ref="K787:K790"/>
+    <mergeCell ref="K791:K794"/>
+    <mergeCell ref="K795:K798"/>
+    <mergeCell ref="K799:K802"/>
+    <mergeCell ref="K803:K806"/>
+    <mergeCell ref="K807:K810"/>
+    <mergeCell ref="K739:K742"/>
+    <mergeCell ref="K743:K746"/>
+    <mergeCell ref="K747:K750"/>
+    <mergeCell ref="K751:K754"/>
+    <mergeCell ref="K755:K758"/>
+    <mergeCell ref="K759:K762"/>
+    <mergeCell ref="K763:K766"/>
+    <mergeCell ref="K767:K770"/>
+    <mergeCell ref="K771:K774"/>
+    <mergeCell ref="K703:K706"/>
+    <mergeCell ref="K707:K710"/>
+    <mergeCell ref="K711:K714"/>
+    <mergeCell ref="K715:K718"/>
+    <mergeCell ref="K719:K722"/>
+    <mergeCell ref="K723:K726"/>
+    <mergeCell ref="K727:K730"/>
+    <mergeCell ref="K731:K734"/>
+    <mergeCell ref="K735:K738"/>
+    <mergeCell ref="K667:K670"/>
+    <mergeCell ref="K671:K674"/>
+    <mergeCell ref="K675:K678"/>
+    <mergeCell ref="K679:K682"/>
+    <mergeCell ref="K683:K686"/>
+    <mergeCell ref="K687:K690"/>
+    <mergeCell ref="K691:K694"/>
+    <mergeCell ref="K695:K698"/>
+    <mergeCell ref="K699:K702"/>
+    <mergeCell ref="K631:K634"/>
+    <mergeCell ref="K635:K638"/>
+    <mergeCell ref="K639:K642"/>
+    <mergeCell ref="K643:K646"/>
+    <mergeCell ref="K647:K650"/>
+    <mergeCell ref="K651:K654"/>
+    <mergeCell ref="K655:K658"/>
+    <mergeCell ref="K659:K662"/>
+    <mergeCell ref="K663:K666"/>
+    <mergeCell ref="K595:K598"/>
+    <mergeCell ref="K599:K602"/>
+    <mergeCell ref="K603:K606"/>
+    <mergeCell ref="K607:K610"/>
+    <mergeCell ref="K611:K614"/>
+    <mergeCell ref="K615:K618"/>
+    <mergeCell ref="K619:K622"/>
+    <mergeCell ref="K623:K626"/>
+    <mergeCell ref="K627:K630"/>
+    <mergeCell ref="K559:K562"/>
+    <mergeCell ref="K563:K566"/>
+    <mergeCell ref="K567:K570"/>
+    <mergeCell ref="K571:K574"/>
+    <mergeCell ref="K575:K578"/>
+    <mergeCell ref="K579:K582"/>
+    <mergeCell ref="K583:K586"/>
+    <mergeCell ref="K587:K590"/>
+    <mergeCell ref="K591:K594"/>
+    <mergeCell ref="K523:K526"/>
+    <mergeCell ref="K527:K530"/>
+    <mergeCell ref="K531:K534"/>
+    <mergeCell ref="K535:K538"/>
+    <mergeCell ref="K539:K542"/>
+    <mergeCell ref="K543:K546"/>
+    <mergeCell ref="K547:K550"/>
+    <mergeCell ref="K551:K554"/>
+    <mergeCell ref="K555:K558"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="A199:A202"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="K67:K70"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="K79:K82"/>
+    <mergeCell ref="K83:K86"/>
+    <mergeCell ref="K175:K178"/>
+    <mergeCell ref="K159:K162"/>
+    <mergeCell ref="K163:K166"/>
+    <mergeCell ref="K167:K170"/>
+    <mergeCell ref="K171:K174"/>
+    <mergeCell ref="K107:K110"/>
+    <mergeCell ref="K111:K114"/>
+    <mergeCell ref="K115:K118"/>
+    <mergeCell ref="K119:K122"/>
+    <mergeCell ref="K123:K126"/>
+    <mergeCell ref="K87:K90"/>
+    <mergeCell ref="K91:K94"/>
+    <mergeCell ref="K95:K98"/>
+    <mergeCell ref="K99:K102"/>
+    <mergeCell ref="K103:K106"/>
+    <mergeCell ref="K147:K150"/>
+    <mergeCell ref="K151:K154"/>
+    <mergeCell ref="K155:K158"/>
+    <mergeCell ref="K179:K182"/>
+    <mergeCell ref="K183:K186"/>
+    <mergeCell ref="K127:K130"/>
+    <mergeCell ref="K131:K134"/>
+    <mergeCell ref="K135:K138"/>
+    <mergeCell ref="K139:K142"/>
+    <mergeCell ref="K143:K146"/>
+    <mergeCell ref="K207:K210"/>
+    <mergeCell ref="K211:K214"/>
+    <mergeCell ref="K215:K218"/>
+    <mergeCell ref="K219:K222"/>
+    <mergeCell ref="K223:K226"/>
+    <mergeCell ref="K187:K190"/>
+    <mergeCell ref="K191:K194"/>
+    <mergeCell ref="K195:K198"/>
+    <mergeCell ref="K199:K202"/>
+    <mergeCell ref="K203:K206"/>
+    <mergeCell ref="K247:K250"/>
+    <mergeCell ref="K251:K254"/>
+    <mergeCell ref="K255:K258"/>
+    <mergeCell ref="K259:K262"/>
+    <mergeCell ref="K263:K266"/>
+    <mergeCell ref="K227:K230"/>
+    <mergeCell ref="K231:K234"/>
+    <mergeCell ref="K235:K238"/>
+    <mergeCell ref="K239:K242"/>
+    <mergeCell ref="K243:K246"/>
+    <mergeCell ref="K287:K290"/>
+    <mergeCell ref="K291:K294"/>
+    <mergeCell ref="K295:K298"/>
+    <mergeCell ref="K299:K302"/>
+    <mergeCell ref="K303:K306"/>
+    <mergeCell ref="K267:K270"/>
+    <mergeCell ref="K271:K274"/>
+    <mergeCell ref="K275:K278"/>
+    <mergeCell ref="K279:K282"/>
+    <mergeCell ref="K283:K286"/>
+    <mergeCell ref="K327:K330"/>
+    <mergeCell ref="K331:K334"/>
+    <mergeCell ref="K335:K338"/>
+    <mergeCell ref="K339:K342"/>
+    <mergeCell ref="K343:K346"/>
+    <mergeCell ref="K307:K310"/>
+    <mergeCell ref="K311:K314"/>
+    <mergeCell ref="K315:K318"/>
+    <mergeCell ref="K319:K322"/>
+    <mergeCell ref="K323:K326"/>
+    <mergeCell ref="K367:K370"/>
+    <mergeCell ref="K371:K374"/>
+    <mergeCell ref="K375:K378"/>
+    <mergeCell ref="K379:K382"/>
+    <mergeCell ref="K383:K386"/>
+    <mergeCell ref="K347:K350"/>
+    <mergeCell ref="K351:K354"/>
+    <mergeCell ref="K355:K358"/>
+    <mergeCell ref="K359:K362"/>
+    <mergeCell ref="K363:K366"/>
+    <mergeCell ref="K435:K438"/>
+    <mergeCell ref="K439:K442"/>
+    <mergeCell ref="K443:K446"/>
+    <mergeCell ref="K407:K410"/>
+    <mergeCell ref="K411:K414"/>
+    <mergeCell ref="K415:K418"/>
+    <mergeCell ref="K419:K422"/>
+    <mergeCell ref="K423:K426"/>
+    <mergeCell ref="K387:K390"/>
+    <mergeCell ref="K391:K394"/>
+    <mergeCell ref="K395:K398"/>
+    <mergeCell ref="K399:K402"/>
+    <mergeCell ref="K403:K406"/>
     <mergeCell ref="K507:K510"/>
     <mergeCell ref="K511:K514"/>
     <mergeCell ref="K515:K518"/>
@@ -25944,188 +26201,6 @@
     <mergeCell ref="K463:K466"/>
     <mergeCell ref="K427:K430"/>
     <mergeCell ref="K431:K434"/>
-    <mergeCell ref="K435:K438"/>
-    <mergeCell ref="K439:K442"/>
-    <mergeCell ref="K443:K446"/>
-    <mergeCell ref="K407:K410"/>
-    <mergeCell ref="K411:K414"/>
-    <mergeCell ref="K415:K418"/>
-    <mergeCell ref="K419:K422"/>
-    <mergeCell ref="K423:K426"/>
-    <mergeCell ref="K387:K390"/>
-    <mergeCell ref="K391:K394"/>
-    <mergeCell ref="K395:K398"/>
-    <mergeCell ref="K399:K402"/>
-    <mergeCell ref="K403:K406"/>
-    <mergeCell ref="K367:K370"/>
-    <mergeCell ref="K371:K374"/>
-    <mergeCell ref="K375:K378"/>
-    <mergeCell ref="K379:K382"/>
-    <mergeCell ref="K383:K386"/>
-    <mergeCell ref="K347:K350"/>
-    <mergeCell ref="K351:K354"/>
-    <mergeCell ref="K355:K358"/>
-    <mergeCell ref="K359:K362"/>
-    <mergeCell ref="K363:K366"/>
-    <mergeCell ref="K327:K330"/>
-    <mergeCell ref="K331:K334"/>
-    <mergeCell ref="K335:K338"/>
-    <mergeCell ref="K339:K342"/>
-    <mergeCell ref="K343:K346"/>
-    <mergeCell ref="K307:K310"/>
-    <mergeCell ref="K311:K314"/>
-    <mergeCell ref="K315:K318"/>
-    <mergeCell ref="K319:K322"/>
-    <mergeCell ref="K323:K326"/>
-    <mergeCell ref="K287:K290"/>
-    <mergeCell ref="K291:K294"/>
-    <mergeCell ref="K295:K298"/>
-    <mergeCell ref="K299:K302"/>
-    <mergeCell ref="K303:K306"/>
-    <mergeCell ref="K267:K270"/>
-    <mergeCell ref="K271:K274"/>
-    <mergeCell ref="K275:K278"/>
-    <mergeCell ref="K279:K282"/>
-    <mergeCell ref="K283:K286"/>
-    <mergeCell ref="K251:K254"/>
-    <mergeCell ref="K255:K258"/>
-    <mergeCell ref="K259:K262"/>
-    <mergeCell ref="K263:K266"/>
-    <mergeCell ref="K227:K230"/>
-    <mergeCell ref="K231:K234"/>
-    <mergeCell ref="K235:K238"/>
-    <mergeCell ref="K239:K242"/>
-    <mergeCell ref="K243:K246"/>
-    <mergeCell ref="K215:K218"/>
-    <mergeCell ref="K219:K222"/>
-    <mergeCell ref="K223:K226"/>
-    <mergeCell ref="K187:K190"/>
-    <mergeCell ref="K191:K194"/>
-    <mergeCell ref="K195:K198"/>
-    <mergeCell ref="K199:K202"/>
-    <mergeCell ref="K203:K206"/>
-    <mergeCell ref="K247:K250"/>
-    <mergeCell ref="K179:K182"/>
-    <mergeCell ref="K183:K186"/>
-    <mergeCell ref="K127:K130"/>
-    <mergeCell ref="K131:K134"/>
-    <mergeCell ref="K135:K138"/>
-    <mergeCell ref="K139:K142"/>
-    <mergeCell ref="K143:K146"/>
-    <mergeCell ref="K207:K210"/>
-    <mergeCell ref="K211:K214"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="K79:K82"/>
-    <mergeCell ref="K83:K86"/>
-    <mergeCell ref="K175:K178"/>
-    <mergeCell ref="K159:K162"/>
-    <mergeCell ref="K163:K166"/>
-    <mergeCell ref="K167:K170"/>
-    <mergeCell ref="K171:K174"/>
-    <mergeCell ref="K107:K110"/>
-    <mergeCell ref="K111:K114"/>
-    <mergeCell ref="K115:K118"/>
-    <mergeCell ref="K119:K122"/>
-    <mergeCell ref="K123:K126"/>
-    <mergeCell ref="K87:K90"/>
-    <mergeCell ref="K91:K94"/>
-    <mergeCell ref="K95:K98"/>
-    <mergeCell ref="K99:K102"/>
-    <mergeCell ref="K103:K106"/>
-    <mergeCell ref="K147:K150"/>
-    <mergeCell ref="K151:K154"/>
-    <mergeCell ref="K155:K158"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A187:A190"/>
-    <mergeCell ref="A199:A202"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="K523:K526"/>
-    <mergeCell ref="K527:K530"/>
-    <mergeCell ref="K531:K534"/>
-    <mergeCell ref="K535:K538"/>
-    <mergeCell ref="K539:K542"/>
-    <mergeCell ref="K543:K546"/>
-    <mergeCell ref="K547:K550"/>
-    <mergeCell ref="K551:K554"/>
-    <mergeCell ref="K555:K558"/>
-    <mergeCell ref="K559:K562"/>
-    <mergeCell ref="K563:K566"/>
-    <mergeCell ref="K567:K570"/>
-    <mergeCell ref="K571:K574"/>
-    <mergeCell ref="K575:K578"/>
-    <mergeCell ref="K579:K582"/>
-    <mergeCell ref="K583:K586"/>
-    <mergeCell ref="K587:K590"/>
-    <mergeCell ref="K591:K594"/>
-    <mergeCell ref="K595:K598"/>
-    <mergeCell ref="K599:K602"/>
-    <mergeCell ref="K603:K606"/>
-    <mergeCell ref="K607:K610"/>
-    <mergeCell ref="K611:K614"/>
-    <mergeCell ref="K615:K618"/>
-    <mergeCell ref="K619:K622"/>
-    <mergeCell ref="K623:K626"/>
-    <mergeCell ref="K627:K630"/>
-    <mergeCell ref="K631:K634"/>
-    <mergeCell ref="K635:K638"/>
-    <mergeCell ref="K639:K642"/>
-    <mergeCell ref="K643:K646"/>
-    <mergeCell ref="K647:K650"/>
-    <mergeCell ref="K651:K654"/>
-    <mergeCell ref="K655:K658"/>
-    <mergeCell ref="K659:K662"/>
-    <mergeCell ref="K663:K666"/>
-    <mergeCell ref="K667:K670"/>
-    <mergeCell ref="K671:K674"/>
-    <mergeCell ref="K675:K678"/>
-    <mergeCell ref="K679:K682"/>
-    <mergeCell ref="K683:K686"/>
-    <mergeCell ref="K687:K690"/>
-    <mergeCell ref="K691:K694"/>
-    <mergeCell ref="K695:K698"/>
-    <mergeCell ref="K699:K702"/>
-    <mergeCell ref="K703:K706"/>
-    <mergeCell ref="K707:K710"/>
-    <mergeCell ref="K711:K714"/>
-    <mergeCell ref="K715:K718"/>
-    <mergeCell ref="K719:K722"/>
-    <mergeCell ref="K723:K726"/>
-    <mergeCell ref="K727:K730"/>
-    <mergeCell ref="K731:K734"/>
-    <mergeCell ref="K735:K738"/>
-    <mergeCell ref="K739:K742"/>
-    <mergeCell ref="K743:K746"/>
-    <mergeCell ref="K747:K750"/>
-    <mergeCell ref="K751:K754"/>
-    <mergeCell ref="K755:K758"/>
-    <mergeCell ref="K759:K762"/>
-    <mergeCell ref="K763:K766"/>
-    <mergeCell ref="K767:K770"/>
-    <mergeCell ref="K771:K774"/>
-    <mergeCell ref="K811:K814"/>
-    <mergeCell ref="K815:K818"/>
-    <mergeCell ref="K819:K822"/>
-    <mergeCell ref="K823:K826"/>
-    <mergeCell ref="K827:K830"/>
-    <mergeCell ref="K831:K834"/>
-    <mergeCell ref="K775:K778"/>
-    <mergeCell ref="K779:K782"/>
-    <mergeCell ref="K783:K786"/>
-    <mergeCell ref="K787:K790"/>
-    <mergeCell ref="K791:K794"/>
-    <mergeCell ref="K795:K798"/>
-    <mergeCell ref="K799:K802"/>
-    <mergeCell ref="K803:K806"/>
-    <mergeCell ref="K807:K810"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28056,11 +28131,11 @@
       <c r="Z31" s="133" t="s">
         <v>449</v>
       </c>
-      <c r="AA31" s="565" t="s">
+      <c r="AA31" s="562" t="s">
         <v>458</v>
       </c>
-      <c r="AB31" s="565"/>
-      <c r="AC31" s="565"/>
+      <c r="AB31" s="562"/>
+      <c r="AC31" s="562"/>
       <c r="AD31" s="133" t="s">
         <v>457</v>
       </c>
@@ -28114,11 +28189,11 @@
       <c r="Z32" s="131" t="s">
         <v>453</v>
       </c>
-      <c r="AA32" s="567" t="s">
+      <c r="AA32" s="563" t="s">
         <v>452</v>
       </c>
-      <c r="AB32" s="567"/>
-      <c r="AC32" s="567"/>
+      <c r="AB32" s="563"/>
+      <c r="AC32" s="563"/>
       <c r="AD32" s="10" t="s">
         <v>452</v>
       </c>
@@ -28175,11 +28250,11 @@
       <c r="Z33" s="89" t="s">
         <v>453</v>
       </c>
-      <c r="AA33" s="567" t="s">
+      <c r="AA33" s="563" t="s">
         <v>452</v>
       </c>
-      <c r="AB33" s="567"/>
-      <c r="AC33" s="567"/>
+      <c r="AB33" s="563"/>
+      <c r="AC33" s="563"/>
       <c r="AD33" s="10" t="s">
         <v>452</v>
       </c>
@@ -28237,7 +28312,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="564"/>
-      <c r="AC34" s="566"/>
+      <c r="AC34" s="565"/>
       <c r="AD34" s="10" t="s">
         <v>452</v>
       </c>
@@ -28291,11 +28366,11 @@
       <c r="Z35" s="89" t="s">
         <v>454</v>
       </c>
-      <c r="AA35" s="562">
+      <c r="AA35" s="566">
         <v>0</v>
       </c>
-      <c r="AB35" s="562"/>
-      <c r="AC35" s="563"/>
+      <c r="AB35" s="566"/>
+      <c r="AC35" s="567"/>
       <c r="AD35" s="10" t="s">
         <v>452</v>
       </c>
@@ -28460,11 +28535,11 @@
       <c r="Z39" s="133" t="s">
         <v>449</v>
       </c>
-      <c r="AA39" s="565" t="s">
+      <c r="AA39" s="562" t="s">
         <v>458</v>
       </c>
-      <c r="AB39" s="565"/>
-      <c r="AC39" s="565"/>
+      <c r="AB39" s="562"/>
+      <c r="AC39" s="562"/>
       <c r="AD39" s="133" t="s">
         <v>457</v>
       </c>
@@ -28522,7 +28597,7 @@
         <v>203</v>
       </c>
       <c r="AB40" s="564"/>
-      <c r="AC40" s="566"/>
+      <c r="AC40" s="565"/>
       <c r="AD40" s="10" t="s">
         <v>452</v>
       </c>
@@ -28576,11 +28651,11 @@
       <c r="Z41" s="89" t="s">
         <v>460</v>
       </c>
-      <c r="AA41" s="562" t="s">
+      <c r="AA41" s="566" t="s">
         <v>203</v>
       </c>
-      <c r="AB41" s="562"/>
-      <c r="AC41" s="563"/>
+      <c r="AB41" s="566"/>
+      <c r="AC41" s="567"/>
       <c r="AD41" s="10" t="s">
         <v>452</v>
       </c>
@@ -28809,9 +28884,9 @@
       <c r="X48" s="141"/>
       <c r="Y48" s="141"/>
       <c r="Z48" s="141"/>
-      <c r="AA48" s="531"/>
-      <c r="AB48" s="531"/>
-      <c r="AC48" s="531"/>
+      <c r="AA48" s="561"/>
+      <c r="AB48" s="561"/>
+      <c r="AC48" s="561"/>
       <c r="AD48" s="141"/>
     </row>
     <row r="49" spans="1:30" s="141" customFormat="1" x14ac:dyDescent="0.35">
@@ -29844,17 +29919,17 @@
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AA35:AC35"/>
     <mergeCell ref="AA48:AC48"/>
     <mergeCell ref="AA41:AC41"/>
     <mergeCell ref="AA42:AC42"/>
     <mergeCell ref="AA36:AC36"/>
     <mergeCell ref="AA39:AC39"/>
     <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AA35:AC35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -31460,17 +31535,17 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B8" s="572" t="s">
+      <c r="B8" s="569" t="s">
         <v>677</v>
       </c>
-      <c r="C8" s="572"/>
-      <c r="D8" s="572"/>
-      <c r="E8" s="572" t="s">
+      <c r="C8" s="569"/>
+      <c r="D8" s="569"/>
+      <c r="E8" s="569" t="s">
         <v>678</v>
       </c>
-      <c r="F8" s="572"/>
-      <c r="G8" s="572"/>
-      <c r="H8" s="572"/>
+      <c r="F8" s="569"/>
+      <c r="G8" s="569"/>
+      <c r="H8" s="569"/>
       <c r="I8" s="89" t="s">
         <v>679</v>
       </c>
@@ -31480,23 +31555,23 @@
       <c r="K8" s="89" t="s">
         <v>681</v>
       </c>
-      <c r="L8" s="572" t="s">
+      <c r="L8" s="569" t="s">
         <v>682</v>
       </c>
-      <c r="M8" s="572"/>
-      <c r="N8" s="572" t="s">
+      <c r="M8" s="569"/>
+      <c r="N8" s="569" t="s">
         <v>683</v>
       </c>
-      <c r="O8" s="572"/>
-      <c r="P8" s="572" t="s">
+      <c r="O8" s="569"/>
+      <c r="P8" s="569" t="s">
         <v>684</v>
       </c>
-      <c r="Q8" s="572"/>
-      <c r="R8" s="572"/>
-      <c r="S8" s="573" t="s">
+      <c r="Q8" s="569"/>
+      <c r="R8" s="569"/>
+      <c r="S8" s="570" t="s">
         <v>685</v>
       </c>
-      <c r="T8" s="566"/>
+      <c r="T8" s="565"/>
       <c r="U8" s="89" t="s">
         <v>686</v>
       </c>
@@ -31598,11 +31673,11 @@
       <c r="X11" s="218" t="s">
         <v>670</v>
       </c>
-      <c r="Y11" s="569" t="s">
+      <c r="Y11" s="571" t="s">
         <v>787</v>
       </c>
-      <c r="Z11" s="570"/>
-      <c r="AA11" s="571"/>
+      <c r="Z11" s="572"/>
+      <c r="AA11" s="573"/>
     </row>
     <row r="12" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="228" t="s">
@@ -31685,17 +31760,17 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B13" s="572" t="s">
+      <c r="B13" s="569" t="s">
         <v>677</v>
       </c>
-      <c r="C13" s="572"/>
-      <c r="D13" s="572"/>
-      <c r="E13" s="572" t="s">
+      <c r="C13" s="569"/>
+      <c r="D13" s="569"/>
+      <c r="E13" s="569" t="s">
         <v>678</v>
       </c>
-      <c r="F13" s="572"/>
-      <c r="G13" s="572"/>
-      <c r="H13" s="572"/>
+      <c r="F13" s="569"/>
+      <c r="G13" s="569"/>
+      <c r="H13" s="569"/>
       <c r="I13" s="89" t="s">
         <v>679</v>
       </c>
@@ -31705,28 +31780,28 @@
       <c r="K13" s="89" t="s">
         <v>681</v>
       </c>
-      <c r="L13" s="572" t="s">
+      <c r="L13" s="569" t="s">
         <v>682</v>
       </c>
-      <c r="M13" s="572"/>
-      <c r="N13" s="572" t="s">
+      <c r="M13" s="569"/>
+      <c r="N13" s="569" t="s">
         <v>683</v>
       </c>
-      <c r="O13" s="572"/>
-      <c r="P13" s="572" t="s">
+      <c r="O13" s="569"/>
+      <c r="P13" s="569" t="s">
         <v>684</v>
       </c>
-      <c r="Q13" s="572"/>
-      <c r="R13" s="572" t="s">
+      <c r="Q13" s="569"/>
+      <c r="R13" s="569" t="s">
         <v>685</v>
       </c>
-      <c r="S13" s="572"/>
-      <c r="T13" s="572"/>
-      <c r="U13" s="572" t="s">
+      <c r="S13" s="569"/>
+      <c r="T13" s="569"/>
+      <c r="U13" s="569" t="s">
         <v>686</v>
       </c>
-      <c r="V13" s="572"/>
-      <c r="W13" s="572"/>
+      <c r="V13" s="569"/>
+      <c r="W13" s="569"/>
       <c r="X13" s="89" t="s">
         <v>687</v>
       </c>
@@ -31980,17 +32055,17 @@
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B24" s="572" t="s">
+      <c r="B24" s="569" t="s">
         <v>677</v>
       </c>
-      <c r="C24" s="572"/>
-      <c r="D24" s="572"/>
-      <c r="E24" s="572" t="s">
+      <c r="C24" s="569"/>
+      <c r="D24" s="569"/>
+      <c r="E24" s="569" t="s">
         <v>678</v>
       </c>
-      <c r="F24" s="572"/>
-      <c r="G24" s="572"/>
-      <c r="H24" s="572"/>
+      <c r="F24" s="569"/>
+      <c r="G24" s="569"/>
+      <c r="H24" s="569"/>
       <c r="I24" s="89" t="s">
         <v>679</v>
       </c>
@@ -32003,23 +32078,23 @@
       <c r="L24" s="216" t="s">
         <v>682</v>
       </c>
-      <c r="M24" s="572" t="s">
+      <c r="M24" s="569" t="s">
         <v>683</v>
       </c>
-      <c r="N24" s="572"/>
-      <c r="O24" s="572" t="s">
+      <c r="N24" s="569"/>
+      <c r="O24" s="569" t="s">
         <v>684</v>
       </c>
-      <c r="P24" s="572"/>
-      <c r="Q24" s="572" t="s">
+      <c r="P24" s="569"/>
+      <c r="Q24" s="569" t="s">
         <v>685</v>
       </c>
-      <c r="R24" s="572"/>
-      <c r="S24" s="572"/>
-      <c r="T24" s="573" t="s">
+      <c r="R24" s="569"/>
+      <c r="S24" s="569"/>
+      <c r="T24" s="570" t="s">
         <v>686</v>
       </c>
-      <c r="U24" s="566"/>
+      <c r="U24" s="565"/>
       <c r="V24" s="89" t="s">
         <v>687</v>
       </c>
@@ -32136,11 +32211,11 @@
       <c r="AB27" s="218" t="s">
         <v>670</v>
       </c>
-      <c r="AC27" s="569" t="s">
+      <c r="AC27" s="571" t="s">
         <v>787</v>
       </c>
-      <c r="AD27" s="570"/>
-      <c r="AE27" s="571"/>
+      <c r="AD27" s="572"/>
+      <c r="AE27" s="573"/>
     </row>
     <row r="28" spans="2:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="228" t="s">
@@ -32235,17 +32310,17 @@
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B29" s="572" t="s">
+      <c r="B29" s="569" t="s">
         <v>677</v>
       </c>
-      <c r="C29" s="572"/>
-      <c r="D29" s="572"/>
-      <c r="E29" s="572" t="s">
+      <c r="C29" s="569"/>
+      <c r="D29" s="569"/>
+      <c r="E29" s="569" t="s">
         <v>678</v>
       </c>
-      <c r="F29" s="572"/>
-      <c r="G29" s="572"/>
-      <c r="H29" s="572"/>
+      <c r="F29" s="569"/>
+      <c r="G29" s="569"/>
+      <c r="H29" s="569"/>
       <c r="I29" s="89" t="s">
         <v>679</v>
       </c>
@@ -32258,28 +32333,28 @@
       <c r="L29" s="216" t="s">
         <v>682</v>
       </c>
-      <c r="M29" s="572" t="s">
+      <c r="M29" s="569" t="s">
         <v>683</v>
       </c>
-      <c r="N29" s="572"/>
-      <c r="O29" s="572" t="s">
+      <c r="N29" s="569"/>
+      <c r="O29" s="569" t="s">
         <v>684</v>
       </c>
-      <c r="P29" s="572"/>
-      <c r="Q29" s="572" t="s">
+      <c r="P29" s="569"/>
+      <c r="Q29" s="569" t="s">
         <v>685</v>
       </c>
-      <c r="R29" s="572"/>
-      <c r="S29" s="572" t="s">
+      <c r="R29" s="569"/>
+      <c r="S29" s="569" t="s">
         <v>686</v>
       </c>
-      <c r="T29" s="572"/>
-      <c r="U29" s="572"/>
-      <c r="V29" s="572" t="s">
+      <c r="T29" s="569"/>
+      <c r="U29" s="569"/>
+      <c r="V29" s="569" t="s">
         <v>687</v>
       </c>
-      <c r="W29" s="572"/>
-      <c r="X29" s="572"/>
+      <c r="W29" s="569"/>
+      <c r="X29" s="569"/>
       <c r="Y29" s="89" t="s">
         <v>688</v>
       </c>
@@ -32401,6 +32476,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:U29"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="S8:T8"/>
@@ -32415,20 +32504,6 @@
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:R8"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="U13:W13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -35338,10 +35413,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="520" t="s">
+      <c r="C2" s="522" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="520"/>
+      <c r="D2" s="522"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="364" t="s">
@@ -36275,7 +36350,7 @@
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="518" t="s">
+      <c r="A81" s="520" t="s">
         <v>74</v>
       </c>
       <c r="B81" s="2">
@@ -36297,7 +36372,7 @@
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="518"/>
+      <c r="A82" s="520"/>
       <c r="B82" s="2">
         <v>80</v>
       </c>
@@ -36315,7 +36390,7 @@
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="518" t="s">
+      <c r="A83" s="520" t="s">
         <v>70</v>
       </c>
       <c r="B83" s="2">
@@ -36337,7 +36412,7 @@
       <c r="J83" s="6"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="518"/>
+      <c r="A84" s="520"/>
       <c r="B84" s="2">
         <v>82</v>
       </c>
@@ -36355,7 +36430,7 @@
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="518" t="s">
+      <c r="A85" s="520" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="2">
@@ -36377,7 +36452,7 @@
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="518"/>
+      <c r="A86" s="520"/>
       <c r="B86" s="2">
         <v>84</v>
       </c>
@@ -36395,7 +36470,7 @@
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="518" t="s">
+      <c r="A87" s="520" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="2">
@@ -36417,7 +36492,7 @@
       <c r="J87" s="6"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="518"/>
+      <c r="A88" s="520"/>
       <c r="B88" s="2">
         <v>86</v>
       </c>
@@ -38030,7 +38105,7 @@
       <c r="J178" s="5"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A179" s="518" t="s">
+      <c r="A179" s="520" t="s">
         <v>2</v>
       </c>
       <c r="B179" s="2">
@@ -38052,7 +38127,7 @@
       <c r="J179" s="7"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A180" s="518"/>
+      <c r="A180" s="520"/>
       <c r="B180" s="2">
         <v>178</v>
       </c>
@@ -38070,7 +38145,7 @@
       <c r="J180" s="8"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A181" s="518"/>
+      <c r="A181" s="520"/>
       <c r="B181" s="2">
         <v>179</v>
       </c>
@@ -38088,7 +38163,7 @@
       <c r="J181" s="8"/>
     </row>
     <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="518"/>
+      <c r="A182" s="520"/>
       <c r="B182" s="2">
         <v>180</v>
       </c>
@@ -38106,7 +38181,7 @@
       <c r="J182" s="9"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A183" s="518" t="s">
+      <c r="A183" s="520" t="s">
         <v>3</v>
       </c>
       <c r="B183" s="2">
@@ -38128,7 +38203,7 @@
       <c r="J183" s="6"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A184" s="518"/>
+      <c r="A184" s="520"/>
       <c r="B184" s="2">
         <v>182</v>
       </c>
@@ -38146,7 +38221,7 @@
       <c r="J184" s="4"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A185" s="518"/>
+      <c r="A185" s="520"/>
       <c r="B185" s="2">
         <v>183</v>
       </c>
@@ -38164,7 +38239,7 @@
       <c r="J185" s="4"/>
     </row>
     <row r="186" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="518"/>
+      <c r="A186" s="520"/>
       <c r="B186" s="2">
         <v>184</v>
       </c>
@@ -38182,7 +38257,7 @@
       <c r="J186" s="5"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A187" s="518" t="s">
+      <c r="A187" s="520" t="s">
         <v>4</v>
       </c>
       <c r="B187" s="2">
@@ -38204,7 +38279,7 @@
       <c r="J187" s="7"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A188" s="518"/>
+      <c r="A188" s="520"/>
       <c r="B188" s="2">
         <v>186</v>
       </c>
@@ -38222,7 +38297,7 @@
       <c r="J188" s="8"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A189" s="518"/>
+      <c r="A189" s="520"/>
       <c r="B189" s="2">
         <v>187</v>
       </c>
@@ -38240,7 +38315,7 @@
       <c r="J189" s="8"/>
     </row>
     <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="518"/>
+      <c r="A190" s="520"/>
       <c r="B190" s="2">
         <v>188</v>
       </c>
@@ -38258,7 +38333,7 @@
       <c r="J190" s="9"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A191" s="518" t="s">
+      <c r="A191" s="520" t="s">
         <v>5</v>
       </c>
       <c r="B191" s="2">
@@ -38280,7 +38355,7 @@
       <c r="J191" s="6"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A192" s="518"/>
+      <c r="A192" s="520"/>
       <c r="B192" s="2">
         <v>190</v>
       </c>
@@ -38297,7 +38372,7 @@
       <c r="J192" s="4"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A193" s="518"/>
+      <c r="A193" s="520"/>
       <c r="B193" s="2">
         <v>191</v>
       </c>
@@ -38315,7 +38390,7 @@
       <c r="J193" s="4"/>
     </row>
     <row r="194" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="518"/>
+      <c r="A194" s="520"/>
       <c r="B194" s="2">
         <v>192</v>
       </c>
@@ -38333,7 +38408,7 @@
       <c r="J194" s="5"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A195" s="518" t="s">
+      <c r="A195" s="520" t="s">
         <v>1</v>
       </c>
       <c r="B195" s="2">
@@ -38355,7 +38430,7 @@
       <c r="J195" s="11"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A196" s="518"/>
+      <c r="A196" s="520"/>
       <c r="B196" s="2">
         <v>194</v>
       </c>
@@ -38373,7 +38448,7 @@
       <c r="J196" s="8"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A197" s="518"/>
+      <c r="A197" s="520"/>
       <c r="B197" s="2">
         <v>195</v>
       </c>
@@ -38391,7 +38466,7 @@
       <c r="J197" s="8"/>
     </row>
     <row r="198" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="518"/>
+      <c r="A198" s="520"/>
       <c r="B198" s="2">
         <v>196</v>
       </c>
@@ -38409,7 +38484,7 @@
       <c r="J198" s="9"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A199" s="519" t="s">
+      <c r="A199" s="521" t="s">
         <v>13</v>
       </c>
       <c r="B199" s="2">
@@ -38429,7 +38504,7 @@
       <c r="J199" s="6"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A200" s="519"/>
+      <c r="A200" s="521"/>
       <c r="B200" s="2">
         <v>198</v>
       </c>
@@ -38447,7 +38522,7 @@
       <c r="J200" s="4"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A201" s="519"/>
+      <c r="A201" s="521"/>
       <c r="B201" s="2">
         <v>199</v>
       </c>
@@ -38465,7 +38540,7 @@
       <c r="J201" s="4"/>
     </row>
     <row r="202" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="519"/>
+      <c r="A202" s="521"/>
       <c r="B202" s="2">
         <v>200</v>
       </c>
@@ -49258,17 +49333,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="A187:A190"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="A199:A202"/>
     <mergeCell ref="A179:A182"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="A199:A202"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49373,7 +49448,7 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="582" t="s">
+      <c r="B4" s="585" t="s">
         <v>1001</v>
       </c>
       <c r="C4" s="299" t="s">
@@ -49396,7 +49471,7 @@
       <c r="H4" s="301" t="s">
         <v>999</v>
       </c>
-      <c r="L4" s="582" t="s">
+      <c r="L4" s="585" t="s">
         <v>1001</v>
       </c>
       <c r="M4" s="333" t="s">
@@ -49419,7 +49494,7 @@
       <c r="R4" s="301" t="s">
         <v>999</v>
       </c>
-      <c r="U4" s="582" t="s">
+      <c r="U4" s="585" t="s">
         <v>1001</v>
       </c>
       <c r="V4" s="333" t="s">
@@ -49444,8 +49519,8 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="583"/>
-      <c r="C5" s="579" t="s">
+      <c r="B5" s="586"/>
+      <c r="C5" s="580" t="s">
         <v>998</v>
       </c>
       <c r="D5" s="297">
@@ -49465,8 +49540,8 @@
       <c r="H5" s="93" t="s">
         <v>996</v>
       </c>
-      <c r="L5" s="583"/>
-      <c r="M5" s="579" t="s">
+      <c r="L5" s="586"/>
+      <c r="M5" s="580" t="s">
         <v>998</v>
       </c>
       <c r="N5" s="297">
@@ -49486,8 +49561,8 @@
       <c r="R5" s="93" t="s">
         <v>996</v>
       </c>
-      <c r="U5" s="583"/>
-      <c r="V5" s="579" t="s">
+      <c r="U5" s="586"/>
+      <c r="V5" s="580" t="s">
         <v>998</v>
       </c>
       <c r="W5" s="297">
@@ -49509,8 +49584,8 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="583"/>
-      <c r="C6" s="581"/>
+      <c r="B6" s="586"/>
+      <c r="C6" s="582"/>
       <c r="D6" s="126">
         <v>2</v>
       </c>
@@ -49528,8 +49603,8 @@
       <c r="H6" s="101" t="s">
         <v>997</v>
       </c>
-      <c r="L6" s="583"/>
-      <c r="M6" s="581"/>
+      <c r="L6" s="586"/>
+      <c r="M6" s="582"/>
       <c r="N6" s="126">
         <v>2</v>
       </c>
@@ -49547,8 +49622,8 @@
       <c r="R6" s="101" t="s">
         <v>997</v>
       </c>
-      <c r="U6" s="583"/>
-      <c r="V6" s="581"/>
+      <c r="U6" s="586"/>
+      <c r="V6" s="582"/>
       <c r="W6" s="126">
         <v>2</v>
       </c>
@@ -49568,8 +49643,8 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B7" s="583"/>
-      <c r="C7" s="579" t="s">
+      <c r="B7" s="586"/>
+      <c r="C7" s="580" t="s">
         <v>995</v>
       </c>
       <c r="D7" s="271">
@@ -49589,8 +49664,8 @@
       <c r="H7" s="298" t="s">
         <v>993</v>
       </c>
-      <c r="L7" s="583"/>
-      <c r="M7" s="579" t="s">
+      <c r="L7" s="586"/>
+      <c r="M7" s="580" t="s">
         <v>995</v>
       </c>
       <c r="N7" s="271">
@@ -49610,8 +49685,8 @@
       <c r="R7" s="298" t="s">
         <v>993</v>
       </c>
-      <c r="U7" s="583"/>
-      <c r="V7" s="579" t="s">
+      <c r="U7" s="586"/>
+      <c r="V7" s="580" t="s">
         <v>995</v>
       </c>
       <c r="W7" s="271">
@@ -49633,8 +49708,8 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="583"/>
-      <c r="C8" s="581"/>
+      <c r="B8" s="586"/>
+      <c r="C8" s="582"/>
       <c r="D8" s="126">
         <v>3</v>
       </c>
@@ -49652,8 +49727,8 @@
       <c r="H8" s="101" t="s">
         <v>994</v>
       </c>
-      <c r="L8" s="583"/>
-      <c r="M8" s="581"/>
+      <c r="L8" s="586"/>
+      <c r="M8" s="582"/>
       <c r="N8" s="126">
         <v>3</v>
       </c>
@@ -49671,8 +49746,8 @@
       <c r="R8" s="101" t="s">
         <v>994</v>
       </c>
-      <c r="U8" s="583"/>
-      <c r="V8" s="581"/>
+      <c r="U8" s="586"/>
+      <c r="V8" s="582"/>
       <c r="W8" s="126">
         <v>3</v>
       </c>
@@ -49692,8 +49767,8 @@
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B9" s="583"/>
-      <c r="C9" s="579" t="s">
+      <c r="B9" s="586"/>
+      <c r="C9" s="580" t="s">
         <v>992</v>
       </c>
       <c r="D9" s="297">
@@ -49713,8 +49788,8 @@
       <c r="H9" s="93" t="s">
         <v>990</v>
       </c>
-      <c r="L9" s="583"/>
-      <c r="M9" s="579" t="s">
+      <c r="L9" s="586"/>
+      <c r="M9" s="580" t="s">
         <v>992</v>
       </c>
       <c r="N9" s="297">
@@ -49734,8 +49809,8 @@
       <c r="R9" s="93" t="s">
         <v>990</v>
       </c>
-      <c r="U9" s="583"/>
-      <c r="V9" s="579" t="s">
+      <c r="U9" s="586"/>
+      <c r="V9" s="580" t="s">
         <v>992</v>
       </c>
       <c r="W9" s="297">
@@ -49757,8 +49832,8 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="583"/>
-      <c r="C10" s="581"/>
+      <c r="B10" s="586"/>
+      <c r="C10" s="582"/>
       <c r="D10" s="126">
         <v>4</v>
       </c>
@@ -49776,8 +49851,8 @@
       <c r="H10" s="101" t="s">
         <v>991</v>
       </c>
-      <c r="L10" s="583"/>
-      <c r="M10" s="581"/>
+      <c r="L10" s="586"/>
+      <c r="M10" s="582"/>
       <c r="N10" s="126">
         <v>4</v>
       </c>
@@ -49795,8 +49870,8 @@
       <c r="R10" s="101" t="s">
         <v>991</v>
       </c>
-      <c r="U10" s="583"/>
-      <c r="V10" s="581"/>
+      <c r="U10" s="586"/>
+      <c r="V10" s="582"/>
       <c r="W10" s="126">
         <v>4</v>
       </c>
@@ -49816,8 +49891,8 @@
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B11" s="583"/>
-      <c r="C11" s="579" t="s">
+      <c r="B11" s="586"/>
+      <c r="C11" s="580" t="s">
         <v>982</v>
       </c>
       <c r="D11" s="271">
@@ -49837,8 +49912,8 @@
       <c r="H11" s="298" t="s">
         <v>980</v>
       </c>
-      <c r="L11" s="583"/>
-      <c r="M11" s="579" t="s">
+      <c r="L11" s="586"/>
+      <c r="M11" s="580" t="s">
         <v>982</v>
       </c>
       <c r="N11" s="271">
@@ -49858,8 +49933,8 @@
       <c r="R11" s="298" t="s">
         <v>980</v>
       </c>
-      <c r="U11" s="583"/>
-      <c r="V11" s="579" t="s">
+      <c r="U11" s="586"/>
+      <c r="V11" s="580" t="s">
         <v>982</v>
       </c>
       <c r="W11" s="271">
@@ -49881,8 +49956,8 @@
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B12" s="583"/>
-      <c r="C12" s="580"/>
+      <c r="B12" s="586"/>
+      <c r="C12" s="581"/>
       <c r="D12" s="125">
         <v>5</v>
       </c>
@@ -49900,8 +49975,8 @@
       <c r="H12" s="94" t="s">
         <v>986</v>
       </c>
-      <c r="L12" s="583"/>
-      <c r="M12" s="580"/>
+      <c r="L12" s="586"/>
+      <c r="M12" s="581"/>
       <c r="N12" s="125">
         <v>5</v>
       </c>
@@ -49919,8 +49994,8 @@
       <c r="R12" s="94" t="s">
         <v>986</v>
       </c>
-      <c r="U12" s="583"/>
-      <c r="V12" s="580"/>
+      <c r="U12" s="586"/>
+      <c r="V12" s="581"/>
       <c r="W12" s="125">
         <v>5</v>
       </c>
@@ -49940,8 +50015,8 @@
       </c>
     </row>
     <row r="13" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="583"/>
-      <c r="C13" s="581"/>
+      <c r="B13" s="586"/>
+      <c r="C13" s="582"/>
       <c r="D13" s="126">
         <v>5</v>
       </c>
@@ -49959,8 +50034,8 @@
       <c r="H13" s="101" t="s">
         <v>987</v>
       </c>
-      <c r="L13" s="583"/>
-      <c r="M13" s="581"/>
+      <c r="L13" s="586"/>
+      <c r="M13" s="582"/>
       <c r="N13" s="126">
         <v>5</v>
       </c>
@@ -49978,8 +50053,8 @@
       <c r="R13" s="101" t="s">
         <v>987</v>
       </c>
-      <c r="U13" s="583"/>
-      <c r="V13" s="581"/>
+      <c r="U13" s="586"/>
+      <c r="V13" s="582"/>
       <c r="W13" s="126">
         <v>5</v>
       </c>
@@ -49999,8 +50074,8 @@
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B14" s="583"/>
-      <c r="C14" s="579" t="s">
+      <c r="B14" s="586"/>
+      <c r="C14" s="580" t="s">
         <v>981</v>
       </c>
       <c r="D14" s="297">
@@ -50020,8 +50095,8 @@
       <c r="H14" s="93" t="s">
         <v>968</v>
       </c>
-      <c r="L14" s="583"/>
-      <c r="M14" s="579" t="s">
+      <c r="L14" s="586"/>
+      <c r="M14" s="580" t="s">
         <v>981</v>
       </c>
       <c r="N14" s="297">
@@ -50041,8 +50116,8 @@
       <c r="R14" s="93" t="s">
         <v>968</v>
       </c>
-      <c r="U14" s="583"/>
-      <c r="V14" s="579" t="s">
+      <c r="U14" s="586"/>
+      <c r="V14" s="580" t="s">
         <v>981</v>
       </c>
       <c r="W14" s="297">
@@ -50064,8 +50139,8 @@
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B15" s="583"/>
-      <c r="C15" s="580"/>
+      <c r="B15" s="586"/>
+      <c r="C15" s="581"/>
       <c r="D15" s="125">
         <v>6</v>
       </c>
@@ -50083,8 +50158,8 @@
       <c r="H15" s="94" t="s">
         <v>969</v>
       </c>
-      <c r="L15" s="583"/>
-      <c r="M15" s="580"/>
+      <c r="L15" s="586"/>
+      <c r="M15" s="581"/>
       <c r="N15" s="125">
         <v>6</v>
       </c>
@@ -50102,8 +50177,8 @@
       <c r="R15" s="94" t="s">
         <v>969</v>
       </c>
-      <c r="U15" s="583"/>
-      <c r="V15" s="580"/>
+      <c r="U15" s="586"/>
+      <c r="V15" s="581"/>
       <c r="W15" s="125">
         <v>6</v>
       </c>
@@ -50123,8 +50198,8 @@
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B16" s="583"/>
-      <c r="C16" s="580"/>
+      <c r="B16" s="586"/>
+      <c r="C16" s="581"/>
       <c r="D16" s="125">
         <v>6</v>
       </c>
@@ -50142,8 +50217,8 @@
       <c r="H16" s="94" t="s">
         <v>979</v>
       </c>
-      <c r="L16" s="583"/>
-      <c r="M16" s="580"/>
+      <c r="L16" s="586"/>
+      <c r="M16" s="581"/>
       <c r="N16" s="125">
         <v>6</v>
       </c>
@@ -50161,8 +50236,8 @@
       <c r="R16" s="94" t="s">
         <v>979</v>
       </c>
-      <c r="U16" s="583"/>
-      <c r="V16" s="580"/>
+      <c r="U16" s="586"/>
+      <c r="V16" s="581"/>
       <c r="W16" s="125">
         <v>6</v>
       </c>
@@ -50182,8 +50257,8 @@
       </c>
     </row>
     <row r="17" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="584"/>
-      <c r="C17" s="581"/>
+      <c r="B17" s="587"/>
+      <c r="C17" s="582"/>
       <c r="D17" s="126">
         <v>6</v>
       </c>
@@ -50201,8 +50276,8 @@
       <c r="H17" s="101" t="s">
         <v>970</v>
       </c>
-      <c r="L17" s="584"/>
-      <c r="M17" s="581"/>
+      <c r="L17" s="587"/>
+      <c r="M17" s="582"/>
       <c r="N17" s="126">
         <v>6</v>
       </c>
@@ -50220,8 +50295,8 @@
       <c r="R17" s="101" t="s">
         <v>970</v>
       </c>
-      <c r="U17" s="584"/>
-      <c r="V17" s="581"/>
+      <c r="U17" s="587"/>
+      <c r="V17" s="582"/>
       <c r="W17" s="126">
         <v>6</v>
       </c>
@@ -50303,7 +50378,7 @@
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="C19" s="579" t="s">
+      <c r="C19" s="580" t="s">
         <v>984</v>
       </c>
       <c r="D19" s="307">
@@ -50323,7 +50398,7 @@
       <c r="H19" s="96" t="s">
         <v>852</v>
       </c>
-      <c r="M19" s="579" t="s">
+      <c r="M19" s="580" t="s">
         <v>984</v>
       </c>
       <c r="N19" s="338">
@@ -50343,7 +50418,7 @@
       <c r="R19" s="96" t="s">
         <v>1043</v>
       </c>
-      <c r="V19" s="579" t="s">
+      <c r="V19" s="580" t="s">
         <v>984</v>
       </c>
       <c r="W19" s="338">
@@ -50365,7 +50440,7 @@
       </c>
     </row>
     <row r="20" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="581"/>
+      <c r="C20" s="582"/>
       <c r="D20" s="307">
         <v>8</v>
       </c>
@@ -50383,7 +50458,7 @@
       <c r="H20" s="96" t="s">
         <v>921</v>
       </c>
-      <c r="M20" s="580"/>
+      <c r="M20" s="581"/>
       <c r="N20" s="307">
         <v>8</v>
       </c>
@@ -50401,7 +50476,7 @@
       <c r="R20" s="96" t="s">
         <v>852</v>
       </c>
-      <c r="V20" s="580"/>
+      <c r="V20" s="581"/>
       <c r="W20" s="307">
         <v>8</v>
       </c>
@@ -50441,7 +50516,7 @@
       <c r="H21" s="283" t="s">
         <v>854</v>
       </c>
-      <c r="M21" s="581"/>
+      <c r="M21" s="582"/>
       <c r="N21" s="307">
         <v>8</v>
       </c>
@@ -50459,7 +50534,7 @@
       <c r="R21" s="96" t="s">
         <v>921</v>
       </c>
-      <c r="V21" s="581"/>
+      <c r="V21" s="582"/>
       <c r="W21" s="307">
         <v>8</v>
       </c>
@@ -50479,7 +50554,7 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="579" t="s">
+      <c r="C22" s="580" t="s">
         <v>988</v>
       </c>
       <c r="D22" s="308">
@@ -50541,7 +50616,7 @@
       </c>
     </row>
     <row r="23" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="580"/>
+      <c r="C23" s="581"/>
       <c r="D23" s="309">
         <v>10</v>
       </c>
@@ -50562,7 +50637,7 @@
       <c r="I23" s="329" t="s">
         <v>966</v>
       </c>
-      <c r="M23" s="579" t="s">
+      <c r="M23" s="580" t="s">
         <v>988</v>
       </c>
       <c r="N23" s="308">
@@ -50585,7 +50660,7 @@
       <c r="S23" s="329" t="s">
         <v>966</v>
       </c>
-      <c r="V23" s="579" t="s">
+      <c r="V23" s="580" t="s">
         <v>988</v>
       </c>
       <c r="W23" s="308">
@@ -50607,7 +50682,7 @@
       </c>
     </row>
     <row r="24" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="577" t="s">
+      <c r="C24" s="583" t="s">
         <v>989</v>
       </c>
       <c r="D24" s="294">
@@ -50627,10 +50702,10 @@
       <c r="H24" s="312" t="s">
         <v>924</v>
       </c>
-      <c r="I24" s="585" t="s">
+      <c r="I24" s="577" t="s">
         <v>955</v>
       </c>
-      <c r="M24" s="580"/>
+      <c r="M24" s="581"/>
       <c r="N24" s="309">
         <v>10</v>
       </c>
@@ -50648,7 +50723,7 @@
       <c r="R24" s="311" t="s">
         <v>923</v>
       </c>
-      <c r="V24" s="580"/>
+      <c r="V24" s="581"/>
       <c r="W24" s="309">
         <v>10</v>
       </c>
@@ -50689,8 +50764,8 @@
       <c r="H25" s="291" t="s">
         <v>925</v>
       </c>
-      <c r="I25" s="586"/>
-      <c r="M25" s="577" t="s">
+      <c r="I25" s="578"/>
+      <c r="M25" s="583" t="s">
         <v>989</v>
       </c>
       <c r="N25" s="294">
@@ -50713,7 +50788,7 @@
       <c r="S25" s="339" t="s">
         <v>955</v>
       </c>
-      <c r="V25" s="577" t="s">
+      <c r="V25" s="583" t="s">
         <v>989</v>
       </c>
       <c r="W25" s="294">
@@ -50755,7 +50830,7 @@
       <c r="H26" s="293" t="s">
         <v>926</v>
       </c>
-      <c r="I26" s="586"/>
+      <c r="I26" s="578"/>
       <c r="M26" s="517"/>
       <c r="N26" s="290">
         <v>11</v>
@@ -50775,7 +50850,7 @@
         <v>925</v>
       </c>
       <c r="S26" s="60"/>
-      <c r="V26" s="578"/>
+      <c r="V26" s="584"/>
       <c r="W26" s="345">
         <v>11</v>
       </c>
@@ -50815,7 +50890,7 @@
       <c r="H27" s="245" t="s">
         <v>927</v>
       </c>
-      <c r="I27" s="586"/>
+      <c r="I27" s="578"/>
       <c r="M27" s="332" t="s">
         <v>1002</v>
       </c>
@@ -50877,7 +50952,7 @@
       <c r="H28" s="245" t="s">
         <v>971</v>
       </c>
-      <c r="I28" s="586"/>
+      <c r="I28" s="578"/>
       <c r="M28" s="517" t="s">
         <v>1003</v>
       </c>
@@ -50899,7 +50974,7 @@
         <v>927</v>
       </c>
       <c r="S28" s="60"/>
-      <c r="V28" s="577" t="s">
+      <c r="V28" s="583" t="s">
         <v>1003</v>
       </c>
       <c r="W28" s="349">
@@ -50941,7 +51016,7 @@
       <c r="H29" s="287" t="s">
         <v>928</v>
       </c>
-      <c r="I29" s="586"/>
+      <c r="I29" s="578"/>
       <c r="M29" s="517"/>
       <c r="N29" s="182">
         <v>13</v>
@@ -50961,7 +51036,7 @@
         <v>971</v>
       </c>
       <c r="S29" s="60"/>
-      <c r="V29" s="578"/>
+      <c r="V29" s="584"/>
       <c r="W29" s="350">
         <v>13</v>
       </c>
@@ -50999,7 +51074,7 @@
       <c r="H30" s="287" t="s">
         <v>929</v>
       </c>
-      <c r="I30" s="586"/>
+      <c r="I30" s="578"/>
       <c r="M30" s="517" t="s">
         <v>1005</v>
       </c>
@@ -51021,7 +51096,7 @@
         <v>928</v>
       </c>
       <c r="S30" s="60"/>
-      <c r="V30" s="577" t="s">
+      <c r="V30" s="583" t="s">
         <v>1005</v>
       </c>
       <c r="W30" s="351">
@@ -51063,7 +51138,7 @@
       <c r="H31" s="315" t="s">
         <v>930</v>
       </c>
-      <c r="I31" s="587"/>
+      <c r="I31" s="579"/>
       <c r="M31" s="517"/>
       <c r="N31" s="286">
         <v>14</v>
@@ -51083,7 +51158,7 @@
         <v>929</v>
       </c>
       <c r="S31" s="60"/>
-      <c r="V31" s="578"/>
+      <c r="V31" s="584"/>
       <c r="W31" s="352">
         <v>14</v>
       </c>
@@ -51103,7 +51178,7 @@
       </c>
     </row>
     <row r="32" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="577" t="s">
+      <c r="C32" s="583" t="s">
         <v>1007</v>
       </c>
       <c r="D32" s="324">
@@ -51187,7 +51262,7 @@
       <c r="H33" s="326" t="s">
         <v>920</v>
       </c>
-      <c r="M33" s="577" t="s">
+      <c r="M33" s="583" t="s">
         <v>1007</v>
       </c>
       <c r="N33" s="324">
@@ -51207,7 +51282,7 @@
       <c r="R33" s="325" t="s">
         <v>919</v>
       </c>
-      <c r="V33" s="577" t="s">
+      <c r="V33" s="583" t="s">
         <v>1007</v>
       </c>
       <c r="W33" s="324">
@@ -51285,7 +51360,7 @@
       </c>
     </row>
     <row r="35" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="578"/>
+      <c r="C35" s="584"/>
       <c r="D35" s="327">
         <v>16</v>
       </c>
@@ -51341,7 +51416,7 @@
       </c>
     </row>
     <row r="36" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="577" t="s">
+      <c r="C36" s="583" t="s">
         <v>1008</v>
       </c>
       <c r="D36" s="294">
@@ -51361,10 +51436,10 @@
       <c r="H36" s="312" t="s">
         <v>931</v>
       </c>
-      <c r="I36" s="585" t="s">
+      <c r="I36" s="577" t="s">
         <v>954</v>
       </c>
-      <c r="M36" s="578"/>
+      <c r="M36" s="584"/>
       <c r="N36" s="327">
         <v>16</v>
       </c>
@@ -51382,7 +51457,7 @@
       <c r="R36" s="328">
         <v>0</v>
       </c>
-      <c r="V36" s="578"/>
+      <c r="V36" s="584"/>
       <c r="W36" s="327">
         <v>16</v>
       </c>
@@ -51420,8 +51495,8 @@
       <c r="H37" s="291" t="s">
         <v>932</v>
       </c>
-      <c r="I37" s="586"/>
-      <c r="M37" s="577" t="s">
+      <c r="I37" s="578"/>
+      <c r="M37" s="583" t="s">
         <v>1008</v>
       </c>
       <c r="N37" s="294">
@@ -51444,7 +51519,7 @@
       <c r="S37" s="339" t="s">
         <v>954</v>
       </c>
-      <c r="V37" s="577" t="s">
+      <c r="V37" s="583" t="s">
         <v>1008</v>
       </c>
       <c r="W37" s="294">
@@ -51486,7 +51561,7 @@
       <c r="H38" s="293" t="s">
         <v>933</v>
       </c>
-      <c r="I38" s="586"/>
+      <c r="I38" s="578"/>
       <c r="M38" s="517"/>
       <c r="N38" s="290">
         <v>17</v>
@@ -51546,7 +51621,7 @@
       <c r="H39" s="245" t="s">
         <v>934</v>
       </c>
-      <c r="I39" s="586"/>
+      <c r="I39" s="578"/>
       <c r="M39" s="332" t="s">
         <v>1009</v>
       </c>
@@ -51568,7 +51643,7 @@
         <v>933</v>
       </c>
       <c r="S39" s="60"/>
-      <c r="V39" s="578"/>
+      <c r="V39" s="584"/>
       <c r="W39" s="345">
         <v>17</v>
       </c>
@@ -51606,7 +51681,7 @@
       <c r="H40" s="245" t="s">
         <v>973</v>
       </c>
-      <c r="I40" s="586"/>
+      <c r="I40" s="578"/>
       <c r="M40" s="517" t="s">
         <v>1010</v>
       </c>
@@ -51670,7 +51745,7 @@
       <c r="H41" s="287" t="s">
         <v>942</v>
       </c>
-      <c r="I41" s="586"/>
+      <c r="I41" s="578"/>
       <c r="M41" s="517"/>
       <c r="N41" s="182">
         <v>19</v>
@@ -51690,7 +51765,7 @@
         <v>973</v>
       </c>
       <c r="S41" s="60"/>
-      <c r="V41" s="577" t="s">
+      <c r="V41" s="583" t="s">
         <v>1010</v>
       </c>
       <c r="W41" s="349">
@@ -51730,7 +51805,7 @@
       <c r="H42" s="287" t="s">
         <v>943</v>
       </c>
-      <c r="I42" s="586"/>
+      <c r="I42" s="578"/>
       <c r="M42" s="517" t="s">
         <v>1011</v>
       </c>
@@ -51752,7 +51827,7 @@
         <v>942</v>
       </c>
       <c r="S42" s="60"/>
-      <c r="V42" s="578"/>
+      <c r="V42" s="584"/>
       <c r="W42" s="350">
         <v>19</v>
       </c>
@@ -51792,7 +51867,7 @@
       <c r="H43" s="315" t="s">
         <v>944</v>
       </c>
-      <c r="I43" s="587"/>
+      <c r="I43" s="579"/>
       <c r="M43" s="517"/>
       <c r="N43" s="286">
         <v>20</v>
@@ -51834,7 +51909,7 @@
       </c>
     </row>
     <row r="44" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="577" t="s">
+      <c r="C44" s="583" t="s">
         <v>1013</v>
       </c>
       <c r="D44" s="294">
@@ -51854,7 +51929,7 @@
       <c r="H44" s="312" t="s">
         <v>935</v>
       </c>
-      <c r="I44" s="585" t="s">
+      <c r="I44" s="577" t="s">
         <v>953</v>
       </c>
       <c r="M44" s="336" t="s">
@@ -51918,8 +51993,8 @@
       <c r="H45" s="291" t="s">
         <v>936</v>
       </c>
-      <c r="I45" s="586"/>
-      <c r="M45" s="577" t="s">
+      <c r="I45" s="578"/>
+      <c r="M45" s="583" t="s">
         <v>1013</v>
       </c>
       <c r="N45" s="294">
@@ -51942,7 +52017,7 @@
       <c r="S45" s="339" t="s">
         <v>953</v>
       </c>
-      <c r="V45" s="577" t="s">
+      <c r="V45" s="583" t="s">
         <v>1013</v>
       </c>
       <c r="W45" s="341"/>
@@ -51972,7 +52047,7 @@
       <c r="H46" s="293" t="s">
         <v>937</v>
       </c>
-      <c r="I46" s="586"/>
+      <c r="I46" s="578"/>
       <c r="M46" s="517"/>
       <c r="N46" s="290">
         <v>22</v>
@@ -52020,7 +52095,7 @@
       <c r="H47" s="245" t="s">
         <v>938</v>
       </c>
-      <c r="I47" s="586"/>
+      <c r="I47" s="578"/>
       <c r="M47" s="332" t="s">
         <v>1014</v>
       </c>
@@ -52070,7 +52145,7 @@
       <c r="H48" s="245" t="s">
         <v>974</v>
       </c>
-      <c r="I48" s="586"/>
+      <c r="I48" s="578"/>
       <c r="M48" s="517" t="s">
         <v>1015</v>
       </c>
@@ -52122,7 +52197,7 @@
       <c r="H49" s="287" t="s">
         <v>939</v>
       </c>
-      <c r="I49" s="586"/>
+      <c r="I49" s="578"/>
       <c r="M49" s="517"/>
       <c r="N49" s="182">
         <v>24</v>
@@ -52168,7 +52243,7 @@
       <c r="H50" s="287" t="s">
         <v>940</v>
       </c>
-      <c r="I50" s="586"/>
+      <c r="I50" s="578"/>
       <c r="M50" s="517" t="s">
         <v>1016</v>
       </c>
@@ -52220,7 +52295,7 @@
       <c r="H51" s="315" t="s">
         <v>941</v>
       </c>
-      <c r="I51" s="587"/>
+      <c r="I51" s="579"/>
       <c r="M51" s="517"/>
       <c r="N51" s="286">
         <v>25</v>
@@ -52248,7 +52323,7 @@
       <c r="AA51" s="87"/>
     </row>
     <row r="52" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C52" s="577" t="s">
+      <c r="C52" s="583" t="s">
         <v>1018</v>
       </c>
       <c r="D52" s="294">
@@ -52268,7 +52343,7 @@
       <c r="H52" s="312" t="s">
         <v>945</v>
       </c>
-      <c r="I52" s="585" t="s">
+      <c r="I52" s="577" t="s">
         <v>952</v>
       </c>
       <c r="M52" s="336" t="s">
@@ -52320,8 +52395,8 @@
       <c r="H53" s="291" t="s">
         <v>946</v>
       </c>
-      <c r="I53" s="586"/>
-      <c r="M53" s="577" t="s">
+      <c r="I53" s="578"/>
+      <c r="M53" s="583" t="s">
         <v>1018</v>
       </c>
       <c r="N53" s="294">
@@ -52344,7 +52419,7 @@
       <c r="S53" s="339" t="s">
         <v>952</v>
       </c>
-      <c r="V53" s="577" t="s">
+      <c r="V53" s="583" t="s">
         <v>1018</v>
       </c>
       <c r="W53" s="341"/>
@@ -52374,7 +52449,7 @@
       <c r="H54" s="293" t="s">
         <v>947</v>
       </c>
-      <c r="I54" s="586"/>
+      <c r="I54" s="578"/>
       <c r="M54" s="517"/>
       <c r="N54" s="290">
         <v>27</v>
@@ -52422,7 +52497,7 @@
       <c r="H55" s="245" t="s">
         <v>948</v>
       </c>
-      <c r="I55" s="586"/>
+      <c r="I55" s="578"/>
       <c r="M55" s="332" t="s">
         <v>1019</v>
       </c>
@@ -52472,7 +52547,7 @@
       <c r="H56" s="245" t="s">
         <v>975</v>
       </c>
-      <c r="I56" s="586"/>
+      <c r="I56" s="578"/>
       <c r="M56" s="517" t="s">
         <v>1020</v>
       </c>
@@ -52524,7 +52599,7 @@
       <c r="H57" s="287" t="s">
         <v>949</v>
       </c>
-      <c r="I57" s="586"/>
+      <c r="I57" s="578"/>
       <c r="M57" s="517"/>
       <c r="N57" s="182">
         <v>29</v>
@@ -52570,7 +52645,7 @@
       <c r="H58" s="287" t="s">
         <v>950</v>
       </c>
-      <c r="I58" s="586"/>
+      <c r="I58" s="578"/>
       <c r="M58" s="517" t="s">
         <v>1021</v>
       </c>
@@ -52622,7 +52697,7 @@
       <c r="H59" s="289" t="s">
         <v>951</v>
       </c>
-      <c r="I59" s="587"/>
+      <c r="I59" s="579"/>
       <c r="M59" s="517"/>
       <c r="N59" s="286">
         <v>30</v>
@@ -52721,7 +52796,7 @@
       <c r="H61" s="291" t="s">
         <v>956</v>
       </c>
-      <c r="I61" s="585" t="s">
+      <c r="I61" s="577" t="s">
         <v>960</v>
       </c>
       <c r="M61" s="317" t="s">
@@ -52772,7 +52847,7 @@
       <c r="H62" s="291" t="s">
         <v>957</v>
       </c>
-      <c r="I62" s="586"/>
+      <c r="I62" s="578"/>
       <c r="M62" s="517" t="s">
         <v>1024</v>
       </c>
@@ -52796,7 +52871,7 @@
       <c r="S62" s="339" t="s">
         <v>960</v>
       </c>
-      <c r="V62" s="577" t="s">
+      <c r="V62" s="583" t="s">
         <v>1024</v>
       </c>
       <c r="W62" s="341"/>
@@ -52826,7 +52901,7 @@
       <c r="H63" s="293" t="s">
         <v>958</v>
       </c>
-      <c r="I63" s="586"/>
+      <c r="I63" s="578"/>
       <c r="M63" s="517"/>
       <c r="N63" s="290">
         <v>33</v>
@@ -52874,7 +52949,7 @@
       <c r="H64" s="245" t="s">
         <v>959</v>
       </c>
-      <c r="I64" s="586"/>
+      <c r="I64" s="578"/>
       <c r="M64" s="332" t="s">
         <v>1025</v>
       </c>
@@ -52924,7 +52999,7 @@
       <c r="H65" s="245" t="s">
         <v>976</v>
       </c>
-      <c r="I65" s="586"/>
+      <c r="I65" s="578"/>
       <c r="M65" s="517" t="s">
         <v>1026</v>
       </c>
@@ -52976,7 +53051,7 @@
       <c r="H66" s="287" t="s">
         <v>961</v>
       </c>
-      <c r="I66" s="586"/>
+      <c r="I66" s="578"/>
       <c r="M66" s="517"/>
       <c r="N66" s="182">
         <v>35</v>
@@ -53022,7 +53097,7 @@
       <c r="H67" s="287" t="s">
         <v>962</v>
       </c>
-      <c r="I67" s="586"/>
+      <c r="I67" s="578"/>
       <c r="M67" s="517" t="s">
         <v>1027</v>
       </c>
@@ -53074,7 +53149,7 @@
       <c r="H68" s="315" t="s">
         <v>963</v>
       </c>
-      <c r="I68" s="587"/>
+      <c r="I68" s="579"/>
       <c r="M68" s="517"/>
       <c r="N68" s="286">
         <v>36</v>
@@ -53102,7 +53177,7 @@
       <c r="AA68" s="87"/>
     </row>
     <row r="69" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C69" s="577" t="s">
+      <c r="C69" s="583" t="s">
         <v>1029</v>
       </c>
       <c r="D69" s="294">
@@ -53122,7 +53197,7 @@
       <c r="H69" s="312" t="s">
         <v>956</v>
       </c>
-      <c r="I69" s="585" t="s">
+      <c r="I69" s="577" t="s">
         <v>964</v>
       </c>
       <c r="M69" s="336" t="s">
@@ -53174,8 +53249,8 @@
       <c r="H70" s="291" t="s">
         <v>957</v>
       </c>
-      <c r="I70" s="586"/>
-      <c r="M70" s="577" t="s">
+      <c r="I70" s="578"/>
+      <c r="M70" s="583" t="s">
         <v>1029</v>
       </c>
       <c r="N70" s="294">
@@ -53198,7 +53273,7 @@
       <c r="S70" s="339" t="s">
         <v>964</v>
       </c>
-      <c r="V70" s="577" t="s">
+      <c r="V70" s="583" t="s">
         <v>1029</v>
       </c>
       <c r="W70" s="341"/>
@@ -53228,7 +53303,7 @@
       <c r="H71" s="293" t="s">
         <v>958</v>
       </c>
-      <c r="I71" s="586"/>
+      <c r="I71" s="578"/>
       <c r="M71" s="517"/>
       <c r="N71" s="290">
         <v>38</v>
@@ -53276,7 +53351,7 @@
       <c r="H72" s="245" t="s">
         <v>959</v>
       </c>
-      <c r="I72" s="586"/>
+      <c r="I72" s="578"/>
       <c r="M72" s="332" t="s">
         <v>1030</v>
       </c>
@@ -53326,7 +53401,7 @@
       <c r="H73" s="245" t="s">
         <v>977</v>
       </c>
-      <c r="I73" s="586"/>
+      <c r="I73" s="578"/>
       <c r="M73" s="517" t="s">
         <v>1031</v>
       </c>
@@ -53378,7 +53453,7 @@
       <c r="H74" s="287" t="s">
         <v>961</v>
       </c>
-      <c r="I74" s="586"/>
+      <c r="I74" s="578"/>
       <c r="M74" s="517"/>
       <c r="N74" s="182">
         <v>40</v>
@@ -53424,7 +53499,7 @@
       <c r="H75" s="287" t="s">
         <v>962</v>
       </c>
-      <c r="I75" s="586"/>
+      <c r="I75" s="578"/>
       <c r="M75" s="517" t="s">
         <v>1032</v>
       </c>
@@ -53476,7 +53551,7 @@
       <c r="H76" s="315" t="s">
         <v>963</v>
       </c>
-      <c r="I76" s="587"/>
+      <c r="I76" s="579"/>
       <c r="M76" s="517"/>
       <c r="N76" s="286">
         <v>41</v>
@@ -53504,7 +53579,7 @@
       <c r="AA76" s="87"/>
     </row>
     <row r="77" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C77" s="577" t="s">
+      <c r="C77" s="583" t="s">
         <v>1034</v>
       </c>
       <c r="D77" s="294">
@@ -53524,7 +53599,7 @@
       <c r="H77" s="312" t="s">
         <v>956</v>
       </c>
-      <c r="I77" s="585" t="s">
+      <c r="I77" s="577" t="s">
         <v>965</v>
       </c>
       <c r="M77" s="336" t="s">
@@ -53576,8 +53651,8 @@
       <c r="H78" s="291" t="s">
         <v>957</v>
       </c>
-      <c r="I78" s="586"/>
-      <c r="M78" s="577" t="s">
+      <c r="I78" s="578"/>
+      <c r="M78" s="583" t="s">
         <v>1034</v>
       </c>
       <c r="N78" s="294">
@@ -53600,7 +53675,7 @@
       <c r="S78" s="339" t="s">
         <v>965</v>
       </c>
-      <c r="V78" s="577" t="s">
+      <c r="V78" s="583" t="s">
         <v>1034</v>
       </c>
       <c r="W78" s="341"/>
@@ -53630,7 +53705,7 @@
       <c r="H79" s="293" t="s">
         <v>958</v>
       </c>
-      <c r="I79" s="586"/>
+      <c r="I79" s="578"/>
       <c r="M79" s="517"/>
       <c r="N79" s="290">
         <v>43</v>
@@ -53678,7 +53753,7 @@
       <c r="H80" s="245" t="s">
         <v>959</v>
       </c>
-      <c r="I80" s="586"/>
+      <c r="I80" s="578"/>
       <c r="M80" s="332" t="s">
         <v>1035</v>
       </c>
@@ -53728,7 +53803,7 @@
       <c r="H81" s="245" t="s">
         <v>978</v>
       </c>
-      <c r="I81" s="586"/>
+      <c r="I81" s="578"/>
       <c r="M81" s="517" t="s">
         <v>1036</v>
       </c>
@@ -53780,7 +53855,7 @@
       <c r="H82" s="287" t="s">
         <v>961</v>
       </c>
-      <c r="I82" s="586"/>
+      <c r="I82" s="578"/>
       <c r="M82" s="517"/>
       <c r="N82" s="182">
         <v>45</v>
@@ -53826,7 +53901,7 @@
       <c r="H83" s="287" t="s">
         <v>962</v>
       </c>
-      <c r="I83" s="586"/>
+      <c r="I83" s="578"/>
       <c r="M83" s="517" t="s">
         <v>1037</v>
       </c>
@@ -53878,7 +53953,7 @@
       <c r="H84" s="315" t="s">
         <v>963</v>
       </c>
-      <c r="I84" s="587"/>
+      <c r="I84" s="579"/>
       <c r="M84" s="517"/>
       <c r="N84" s="286">
         <v>46</v>
@@ -53991,6 +54066,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="V78:V79"/>
+    <mergeCell ref="V81:V82"/>
+    <mergeCell ref="V83:V84"/>
+    <mergeCell ref="V37:V39"/>
+    <mergeCell ref="V62:V63"/>
+    <mergeCell ref="V65:V66"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="V56:V57"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="V33:V36"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="U4:U17"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M33:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="L4:L17"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="I69:I76"/>
     <mergeCell ref="I77:I84"/>
     <mergeCell ref="C14:C17"/>
@@ -54007,86 +54162,6 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="L4:L17"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M33:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="U4:U17"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="V19:V21"/>
-    <mergeCell ref="V33:V36"/>
-    <mergeCell ref="V41:V42"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="V78:V79"/>
-    <mergeCell ref="V81:V82"/>
-    <mergeCell ref="V83:V84"/>
-    <mergeCell ref="V37:V39"/>
-    <mergeCell ref="V62:V63"/>
-    <mergeCell ref="V65:V66"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="V56:V57"/>
-    <mergeCell ref="V58:V59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -57394,24 +57469,24 @@
       <c r="C20" s="193" t="s">
         <v>1563</v>
       </c>
-      <c r="J20" s="614" t="s">
+      <c r="J20" s="598" t="s">
         <v>1564</v>
       </c>
-      <c r="K20" s="614"/>
-      <c r="L20" s="614"/>
-      <c r="M20" s="614"/>
-      <c r="N20" s="614"/>
-      <c r="O20" s="614"/>
-      <c r="P20" s="614"/>
+      <c r="K20" s="598"/>
+      <c r="L20" s="598"/>
+      <c r="M20" s="598"/>
+      <c r="N20" s="598"/>
+      <c r="O20" s="598"/>
+      <c r="P20" s="598"/>
     </row>
     <row r="21" spans="2:25" s="364" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="193"/>
     </row>
     <row r="22" spans="2:25" s="364" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="607" t="s">
+      <c r="C22" s="591" t="s">
         <v>1561</v>
       </c>
-      <c r="D22" s="607"/>
+      <c r="D22" s="591"/>
       <c r="E22" s="453" t="s">
         <v>792</v>
       </c>
@@ -57421,30 +57496,30 @@
       <c r="H22" s="364" t="s">
         <v>532</v>
       </c>
-      <c r="J22" s="602" t="s">
+      <c r="J22" s="613" t="s">
         <v>1480</v>
       </c>
-      <c r="K22" s="603"/>
-      <c r="L22" s="603"/>
-      <c r="M22" s="603"/>
-      <c r="N22" s="591" t="s">
+      <c r="K22" s="614"/>
+      <c r="L22" s="614"/>
+      <c r="M22" s="614"/>
+      <c r="N22" s="602" t="s">
         <v>792</v>
       </c>
-      <c r="O22" s="592"/>
-      <c r="P22" s="595" t="s">
+      <c r="O22" s="603"/>
+      <c r="P22" s="606" t="s">
         <v>793</v>
       </c>
-      <c r="S22" s="602" t="s">
+      <c r="S22" s="613" t="s">
         <v>1480</v>
       </c>
-      <c r="T22" s="603"/>
-      <c r="U22" s="603"/>
-      <c r="V22" s="603"/>
-      <c r="W22" s="591" t="s">
+      <c r="T22" s="614"/>
+      <c r="U22" s="614"/>
+      <c r="V22" s="614"/>
+      <c r="W22" s="602" t="s">
         <v>792</v>
       </c>
-      <c r="X22" s="592"/>
-      <c r="Y22" s="595" t="s">
+      <c r="X22" s="603"/>
+      <c r="Y22" s="606" t="s">
         <v>793</v>
       </c>
     </row>
@@ -57459,28 +57534,28 @@
         <v>1562</v>
       </c>
       <c r="F23" s="450"/>
-      <c r="J23" s="597" t="s">
+      <c r="J23" s="608" t="s">
         <v>790</v>
       </c>
-      <c r="K23" s="598"/>
-      <c r="L23" s="598" t="s">
+      <c r="K23" s="609"/>
+      <c r="L23" s="609" t="s">
         <v>791</v>
       </c>
-      <c r="M23" s="598"/>
-      <c r="N23" s="593"/>
-      <c r="O23" s="594"/>
-      <c r="P23" s="596"/>
-      <c r="S23" s="597" t="s">
+      <c r="M23" s="609"/>
+      <c r="N23" s="604"/>
+      <c r="O23" s="605"/>
+      <c r="P23" s="607"/>
+      <c r="S23" s="608" t="s">
         <v>790</v>
       </c>
-      <c r="T23" s="598"/>
-      <c r="U23" s="598" t="s">
+      <c r="T23" s="609"/>
+      <c r="U23" s="609" t="s">
         <v>791</v>
       </c>
-      <c r="V23" s="598"/>
-      <c r="W23" s="593"/>
-      <c r="X23" s="594"/>
-      <c r="Y23" s="596"/>
+      <c r="V23" s="609"/>
+      <c r="W23" s="604"/>
+      <c r="X23" s="605"/>
+      <c r="Y23" s="607"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B24">
@@ -57507,7 +57582,7 @@
       <c r="H24" s="364" t="s">
         <v>1525</v>
       </c>
-      <c r="I24" s="604" t="s">
+      <c r="I24" s="599" t="s">
         <v>1756</v>
       </c>
       <c r="J24" s="456" t="s">
@@ -57567,7 +57642,7 @@
       <c r="H25" s="415" t="s">
         <v>1524</v>
       </c>
-      <c r="I25" s="605"/>
+      <c r="I25" s="600"/>
       <c r="J25" s="426" t="s">
         <v>1569</v>
       </c>
@@ -57620,7 +57695,7 @@
       <c r="H26" s="364" t="s">
         <v>1523</v>
       </c>
-      <c r="I26" s="605"/>
+      <c r="I26" s="600"/>
       <c r="J26" s="426" t="s">
         <v>1573</v>
       </c>
@@ -57670,7 +57745,7 @@
       <c r="H27" s="364" t="s">
         <v>1522</v>
       </c>
-      <c r="I27" s="605"/>
+      <c r="I27" s="600"/>
       <c r="J27" s="426" t="s">
         <v>1577</v>
       </c>
@@ -57720,7 +57795,7 @@
       <c r="H28" s="364" t="s">
         <v>1521</v>
       </c>
-      <c r="I28" s="605"/>
+      <c r="I28" s="600"/>
       <c r="J28" s="426" t="s">
         <v>1578</v>
       </c>
@@ -57773,7 +57848,7 @@
       <c r="H29" s="364" t="s">
         <v>1520</v>
       </c>
-      <c r="I29" s="605"/>
+      <c r="I29" s="600"/>
       <c r="J29" s="426" t="s">
         <v>1579</v>
       </c>
@@ -57823,7 +57898,7 @@
       <c r="H30" s="364" t="s">
         <v>1519</v>
       </c>
-      <c r="I30" s="605"/>
+      <c r="I30" s="600"/>
       <c r="J30" s="426" t="s">
         <v>1580</v>
       </c>
@@ -57873,7 +57948,7 @@
       <c r="H31" s="398" t="s">
         <v>1518</v>
       </c>
-      <c r="I31" s="605"/>
+      <c r="I31" s="600"/>
       <c r="J31" s="426" t="s">
         <v>1581</v>
       </c>
@@ -57926,7 +58001,7 @@
       <c r="H32" s="364" t="s">
         <v>1528</v>
       </c>
-      <c r="I32" s="605"/>
+      <c r="I32" s="600"/>
       <c r="J32" s="426" t="s">
         <v>1582</v>
       </c>
@@ -57976,7 +58051,7 @@
       <c r="H33" s="364" t="s">
         <v>1530</v>
       </c>
-      <c r="I33" s="605"/>
+      <c r="I33" s="600"/>
       <c r="J33" s="426" t="s">
         <v>1583</v>
       </c>
@@ -58026,7 +58101,7 @@
       <c r="H34" s="364" t="s">
         <v>1531</v>
       </c>
-      <c r="I34" s="605"/>
+      <c r="I34" s="600"/>
       <c r="J34" s="426" t="s">
         <v>1584</v>
       </c>
@@ -58079,7 +58154,7 @@
       <c r="H35" s="364" t="s">
         <v>1534</v>
       </c>
-      <c r="I35" s="605"/>
+      <c r="I35" s="600"/>
       <c r="J35" s="426" t="s">
         <v>1585</v>
       </c>
@@ -58132,7 +58207,7 @@
       <c r="H36" s="364" t="s">
         <v>1536</v>
       </c>
-      <c r="I36" s="605"/>
+      <c r="I36" s="600"/>
       <c r="J36" s="426" t="s">
         <v>1586</v>
       </c>
@@ -58185,7 +58260,7 @@
       <c r="H37" s="364" t="s">
         <v>1538</v>
       </c>
-      <c r="I37" s="605"/>
+      <c r="I37" s="600"/>
       <c r="J37" s="426" t="s">
         <v>1587</v>
       </c>
@@ -58238,7 +58313,7 @@
       <c r="H38" s="364" t="s">
         <v>1540</v>
       </c>
-      <c r="I38" s="605"/>
+      <c r="I38" s="600"/>
       <c r="J38" s="426" t="s">
         <v>1588</v>
       </c>
@@ -58291,7 +58366,7 @@
       <c r="H39" s="364" t="s">
         <v>1542</v>
       </c>
-      <c r="I39" s="605"/>
+      <c r="I39" s="600"/>
       <c r="J39" s="426" t="s">
         <v>1589</v>
       </c>
@@ -58344,7 +58419,7 @@
       <c r="H40" s="364" t="s">
         <v>1544</v>
       </c>
-      <c r="I40" s="605"/>
+      <c r="I40" s="600"/>
       <c r="J40" s="426" t="s">
         <v>1590</v>
       </c>
@@ -58397,7 +58472,7 @@
       <c r="H41" s="364" t="s">
         <v>1546</v>
       </c>
-      <c r="I41" s="605"/>
+      <c r="I41" s="600"/>
       <c r="J41" s="426" t="s">
         <v>1591</v>
       </c>
@@ -58450,7 +58525,7 @@
       <c r="H42" s="364" t="s">
         <v>1548</v>
       </c>
-      <c r="I42" s="605"/>
+      <c r="I42" s="600"/>
       <c r="J42" s="426" t="s">
         <v>1592</v>
       </c>
@@ -58500,7 +58575,7 @@
       <c r="H43" s="364" t="s">
         <v>1550</v>
       </c>
-      <c r="I43" s="605"/>
+      <c r="I43" s="600"/>
       <c r="J43" s="426" t="s">
         <v>1593</v>
       </c>
@@ -58550,7 +58625,7 @@
       <c r="H44" s="364" t="s">
         <v>1552</v>
       </c>
-      <c r="I44" s="605"/>
+      <c r="I44" s="600"/>
       <c r="J44" s="426" t="s">
         <v>1594</v>
       </c>
@@ -58600,7 +58675,7 @@
       <c r="H45" s="364" t="s">
         <v>1554</v>
       </c>
-      <c r="I45" s="605"/>
+      <c r="I45" s="600"/>
       <c r="J45" s="483" t="s">
         <v>1595</v>
       </c>
@@ -58653,7 +58728,7 @@
       <c r="H46" s="364" t="s">
         <v>1556</v>
       </c>
-      <c r="I46" s="605"/>
+      <c r="I46" s="600"/>
       <c r="J46" s="426" t="s">
         <v>1596</v>
       </c>
@@ -58703,7 +58778,7 @@
       <c r="H47" s="364" t="s">
         <v>1558</v>
       </c>
-      <c r="I47" s="605"/>
+      <c r="I47" s="600"/>
       <c r="J47" s="426" t="s">
         <v>1597</v>
       </c>
@@ -58753,7 +58828,7 @@
       <c r="H48" s="364" t="s">
         <v>1560</v>
       </c>
-      <c r="I48" s="605"/>
+      <c r="I48" s="600"/>
       <c r="J48" s="426" t="s">
         <v>1598</v>
       </c>
@@ -58786,7 +58861,7 @@
         <f>SUM(E24:E48)</f>
         <v>13696</v>
       </c>
-      <c r="I49" s="605"/>
+      <c r="I49" s="600"/>
       <c r="J49" s="426" t="s">
         <v>1599</v>
       </c>
@@ -58812,7 +58887,7 @@
       </c>
     </row>
     <row r="50" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I50" s="605"/>
+      <c r="I50" s="600"/>
       <c r="J50" s="426" t="s">
         <v>1600</v>
       </c>
@@ -58838,7 +58913,7 @@
       </c>
     </row>
     <row r="51" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I51" s="605"/>
+      <c r="I51" s="600"/>
       <c r="J51" s="426" t="s">
         <v>1601</v>
       </c>
@@ -58864,7 +58939,7 @@
       </c>
     </row>
     <row r="52" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I52" s="605"/>
+      <c r="I52" s="600"/>
       <c r="J52" s="426" t="s">
         <v>1602</v>
       </c>
@@ -58890,7 +58965,7 @@
       </c>
     </row>
     <row r="53" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I53" s="605"/>
+      <c r="I53" s="600"/>
       <c r="J53" s="426" t="s">
         <v>1715</v>
       </c>
@@ -58919,7 +58994,7 @@
       </c>
     </row>
     <row r="54" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I54" s="605"/>
+      <c r="I54" s="600"/>
       <c r="J54" s="426" t="s">
         <v>1707</v>
       </c>
@@ -58948,7 +59023,7 @@
       </c>
     </row>
     <row r="55" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I55" s="605"/>
+      <c r="I55" s="600"/>
       <c r="J55" s="426" t="s">
         <v>1708</v>
       </c>
@@ -58977,7 +59052,7 @@
       </c>
     </row>
     <row r="56" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I56" s="605"/>
+      <c r="I56" s="600"/>
       <c r="J56" s="426" t="s">
         <v>1709</v>
       </c>
@@ -59006,7 +59081,7 @@
       </c>
     </row>
     <row r="57" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I57" s="605"/>
+      <c r="I57" s="600"/>
       <c r="J57" s="426" t="s">
         <v>1710</v>
       </c>
@@ -59035,7 +59110,7 @@
       </c>
     </row>
     <row r="58" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I58" s="605"/>
+      <c r="I58" s="600"/>
       <c r="J58" s="426" t="s">
         <v>1691</v>
       </c>
@@ -59064,7 +59139,7 @@
       </c>
     </row>
     <row r="59" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I59" s="605"/>
+      <c r="I59" s="600"/>
       <c r="J59" s="426" t="s">
         <v>1692</v>
       </c>
@@ -59093,7 +59168,7 @@
       </c>
     </row>
     <row r="60" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I60" s="605"/>
+      <c r="I60" s="600"/>
       <c r="J60" s="426" t="s">
         <v>1693</v>
       </c>
@@ -59122,7 +59197,7 @@
       </c>
     </row>
     <row r="61" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I61" s="605"/>
+      <c r="I61" s="600"/>
       <c r="J61" s="426" t="s">
         <v>1694</v>
       </c>
@@ -59151,7 +59226,7 @@
       </c>
     </row>
     <row r="62" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I62" s="606"/>
+      <c r="I62" s="601"/>
       <c r="J62" s="458" t="s">
         <v>1699</v>
       </c>
@@ -59183,7 +59258,7 @@
       </c>
     </row>
     <row r="63" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I63" s="604" t="s">
+      <c r="I63" s="599" t="s">
         <v>1755</v>
       </c>
       <c r="J63" s="461" t="s">
@@ -59211,7 +59286,7 @@
       </c>
     </row>
     <row r="64" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="I64" s="605"/>
+      <c r="I64" s="600"/>
       <c r="J64" s="426" t="s">
         <v>1717</v>
       </c>
@@ -59237,7 +59312,7 @@
       </c>
     </row>
     <row r="65" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I65" s="605"/>
+      <c r="I65" s="600"/>
       <c r="J65" s="426" t="s">
         <v>1718</v>
       </c>
@@ -59263,7 +59338,7 @@
       </c>
     </row>
     <row r="66" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I66" s="605"/>
+      <c r="I66" s="600"/>
       <c r="J66" s="426" t="s">
         <v>1719</v>
       </c>
@@ -59289,7 +59364,7 @@
       </c>
     </row>
     <row r="67" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I67" s="605"/>
+      <c r="I67" s="600"/>
       <c r="J67" s="426" t="s">
         <v>1720</v>
       </c>
@@ -59315,7 +59390,7 @@
       </c>
     </row>
     <row r="68" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I68" s="605"/>
+      <c r="I68" s="600"/>
       <c r="J68" s="426" t="s">
         <v>1721</v>
       </c>
@@ -59341,7 +59416,7 @@
       </c>
     </row>
     <row r="69" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I69" s="605"/>
+      <c r="I69" s="600"/>
       <c r="J69" s="426" t="s">
         <v>1722</v>
       </c>
@@ -59367,7 +59442,7 @@
       </c>
     </row>
     <row r="70" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I70" s="605"/>
+      <c r="I70" s="600"/>
       <c r="J70" s="426" t="s">
         <v>1723</v>
       </c>
@@ -59393,7 +59468,7 @@
       </c>
     </row>
     <row r="71" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I71" s="605"/>
+      <c r="I71" s="600"/>
       <c r="J71" s="426" t="s">
         <v>1724</v>
       </c>
@@ -59419,7 +59494,7 @@
       </c>
     </row>
     <row r="72" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I72" s="606"/>
+      <c r="I72" s="601"/>
       <c r="J72" s="458" t="s">
         <v>1725</v>
       </c>
@@ -59445,7 +59520,7 @@
       </c>
     </row>
     <row r="73" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I73" s="604" t="s">
+      <c r="I73" s="599" t="s">
         <v>1773</v>
       </c>
       <c r="J73" s="461" t="s">
@@ -59473,7 +59548,7 @@
       </c>
     </row>
     <row r="74" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I74" s="605"/>
+      <c r="I74" s="600"/>
       <c r="J74" s="426" t="s">
         <v>1758</v>
       </c>
@@ -59499,7 +59574,7 @@
       </c>
     </row>
     <row r="75" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I75" s="605"/>
+      <c r="I75" s="600"/>
       <c r="J75" s="426" t="s">
         <v>1759</v>
       </c>
@@ -59525,7 +59600,7 @@
       </c>
     </row>
     <row r="76" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I76" s="605"/>
+      <c r="I76" s="600"/>
       <c r="J76" s="426" t="s">
         <v>1760</v>
       </c>
@@ -59551,7 +59626,7 @@
       </c>
     </row>
     <row r="77" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I77" s="605"/>
+      <c r="I77" s="600"/>
       <c r="J77" s="426" t="s">
         <v>1774</v>
       </c>
@@ -59580,7 +59655,7 @@
       </c>
     </row>
     <row r="78" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I78" s="605"/>
+      <c r="I78" s="600"/>
       <c r="J78" s="426" t="s">
         <v>1775</v>
       </c>
@@ -59609,7 +59684,7 @@
       </c>
     </row>
     <row r="79" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I79" s="605"/>
+      <c r="I79" s="600"/>
       <c r="J79" s="426" t="s">
         <v>1776</v>
       </c>
@@ -59638,7 +59713,7 @@
       </c>
     </row>
     <row r="80" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I80" s="606"/>
+      <c r="I80" s="601"/>
       <c r="J80" s="458" t="s">
         <v>1777</v>
       </c>
@@ -59667,7 +59742,7 @@
       </c>
     </row>
     <row r="81" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I81" s="604" t="s">
+      <c r="I81" s="599" t="s">
         <v>1814</v>
       </c>
       <c r="J81" s="461" t="s">
@@ -59695,7 +59770,7 @@
       </c>
     </row>
     <row r="82" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I82" s="605"/>
+      <c r="I82" s="600"/>
       <c r="J82" s="426" t="s">
         <v>1791</v>
       </c>
@@ -59727,7 +59802,7 @@
       </c>
     </row>
     <row r="83" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I83" s="605"/>
+      <c r="I83" s="600"/>
       <c r="J83" s="426" t="s">
         <v>1792</v>
       </c>
@@ -59753,7 +59828,7 @@
       </c>
     </row>
     <row r="84" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I84" s="605"/>
+      <c r="I84" s="600"/>
       <c r="J84" s="426" t="s">
         <v>1793</v>
       </c>
@@ -59779,7 +59854,7 @@
       </c>
     </row>
     <row r="85" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I85" s="605"/>
+      <c r="I85" s="600"/>
       <c r="J85" s="426" t="s">
         <v>1794</v>
       </c>
@@ -59805,7 +59880,7 @@
       </c>
     </row>
     <row r="86" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I86" s="605"/>
+      <c r="I86" s="600"/>
       <c r="J86" s="426" t="s">
         <v>1795</v>
       </c>
@@ -59831,7 +59906,7 @@
       </c>
     </row>
     <row r="87" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I87" s="605"/>
+      <c r="I87" s="600"/>
       <c r="J87" s="426" t="s">
         <v>1796</v>
       </c>
@@ -59857,7 +59932,7 @@
       </c>
     </row>
     <row r="88" spans="9:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I88" s="606"/>
+      <c r="I88" s="601"/>
       <c r="J88" s="458" t="s">
         <v>1797</v>
       </c>
@@ -59886,7 +59961,7 @@
       </c>
     </row>
     <row r="89" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I89" s="599" t="s">
+      <c r="I89" s="610" t="s">
         <v>1879</v>
       </c>
       <c r="J89" s="426" t="s">
@@ -59914,7 +59989,7 @@
       </c>
     </row>
     <row r="90" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I90" s="600"/>
+      <c r="I90" s="611"/>
       <c r="J90" s="426" t="s">
         <v>1824</v>
       </c>
@@ -59940,7 +60015,7 @@
       </c>
     </row>
     <row r="91" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I91" s="600"/>
+      <c r="I91" s="611"/>
       <c r="J91" s="426" t="s">
         <v>1825</v>
       </c>
@@ -59966,7 +60041,7 @@
       </c>
     </row>
     <row r="92" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I92" s="600"/>
+      <c r="I92" s="611"/>
       <c r="J92" s="426" t="s">
         <v>1826</v>
       </c>
@@ -59992,7 +60067,7 @@
       </c>
     </row>
     <row r="93" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I93" s="600"/>
+      <c r="I93" s="611"/>
       <c r="J93" s="426" t="s">
         <v>1827</v>
       </c>
@@ -60018,7 +60093,7 @@
       </c>
     </row>
     <row r="94" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I94" s="600"/>
+      <c r="I94" s="611"/>
       <c r="J94" s="426" t="s">
         <v>1828</v>
       </c>
@@ -60044,7 +60119,7 @@
       </c>
     </row>
     <row r="95" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I95" s="600"/>
+      <c r="I95" s="611"/>
       <c r="J95" s="426" t="s">
         <v>1829</v>
       </c>
@@ -60070,7 +60145,7 @@
       </c>
     </row>
     <row r="96" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I96" s="600"/>
+      <c r="I96" s="611"/>
       <c r="J96" s="426" t="s">
         <v>1830</v>
       </c>
@@ -60096,7 +60171,7 @@
       </c>
     </row>
     <row r="97" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I97" s="600"/>
+      <c r="I97" s="611"/>
       <c r="J97" s="426" t="s">
         <v>1831</v>
       </c>
@@ -60122,7 +60197,7 @@
       </c>
     </row>
     <row r="98" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I98" s="600"/>
+      <c r="I98" s="611"/>
       <c r="J98" s="426" t="s">
         <v>1832</v>
       </c>
@@ -60148,7 +60223,7 @@
       </c>
     </row>
     <row r="99" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I99" s="600"/>
+      <c r="I99" s="611"/>
       <c r="J99" s="426" t="s">
         <v>1833</v>
       </c>
@@ -60174,7 +60249,7 @@
       </c>
     </row>
     <row r="100" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I100" s="600"/>
+      <c r="I100" s="611"/>
       <c r="J100" s="426" t="s">
         <v>1834</v>
       </c>
@@ -60200,7 +60275,7 @@
       </c>
     </row>
     <row r="101" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I101" s="600"/>
+      <c r="I101" s="611"/>
       <c r="J101" s="426" t="s">
         <v>1835</v>
       </c>
@@ -60226,7 +60301,7 @@
       </c>
     </row>
     <row r="102" spans="9:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I102" s="601"/>
+      <c r="I102" s="612"/>
       <c r="J102" s="458" t="s">
         <v>1836</v>
       </c>
@@ -60252,7 +60327,7 @@
       </c>
     </row>
     <row r="103" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I103" s="608" t="s">
+      <c r="I103" s="592" t="s">
         <v>1932</v>
       </c>
       <c r="J103" s="456" t="s">
@@ -60280,7 +60355,7 @@
       </c>
     </row>
     <row r="104" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I104" s="609"/>
+      <c r="I104" s="593"/>
       <c r="J104" s="426" t="s">
         <v>1881</v>
       </c>
@@ -60306,7 +60381,7 @@
       </c>
     </row>
     <row r="105" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I105" s="609"/>
+      <c r="I105" s="593"/>
       <c r="J105" s="426" t="s">
         <v>1882</v>
       </c>
@@ -60332,7 +60407,7 @@
       </c>
     </row>
     <row r="106" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I106" s="609"/>
+      <c r="I106" s="593"/>
       <c r="J106" s="426" t="s">
         <v>1883</v>
       </c>
@@ -60358,7 +60433,7 @@
       </c>
     </row>
     <row r="107" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I107" s="609"/>
+      <c r="I107" s="593"/>
       <c r="J107" s="426" t="s">
         <v>1884</v>
       </c>
@@ -60384,7 +60459,7 @@
       </c>
     </row>
     <row r="108" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I108" s="609"/>
+      <c r="I108" s="593"/>
       <c r="J108" s="426" t="s">
         <v>1899</v>
       </c>
@@ -60410,7 +60485,7 @@
       </c>
     </row>
     <row r="109" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I109" s="609"/>
+      <c r="I109" s="593"/>
       <c r="J109" s="426" t="s">
         <v>1900</v>
       </c>
@@ -60436,7 +60511,7 @@
       </c>
     </row>
     <row r="110" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I110" s="609"/>
+      <c r="I110" s="593"/>
       <c r="J110" s="426" t="s">
         <v>1901</v>
       </c>
@@ -60462,7 +60537,7 @@
       </c>
     </row>
     <row r="111" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I111" s="609"/>
+      <c r="I111" s="593"/>
       <c r="J111" s="426" t="s">
         <v>1911</v>
       </c>
@@ -60488,7 +60563,7 @@
       </c>
     </row>
     <row r="112" spans="9:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I112" s="610"/>
+      <c r="I112" s="594"/>
       <c r="J112" s="458" t="s">
         <v>1913</v>
       </c>
@@ -60545,7 +60620,7 @@
       </c>
     </row>
     <row r="114" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I114" s="580"/>
+      <c r="I114" s="581"/>
       <c r="J114" s="426" t="s">
         <v>1916</v>
       </c>
@@ -60574,7 +60649,7 @@
       </c>
     </row>
     <row r="115" spans="9:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I115" s="580"/>
+      <c r="I115" s="581"/>
       <c r="J115" s="465" t="s">
         <v>1917</v>
       </c>
@@ -60632,7 +60707,7 @@
       </c>
     </row>
     <row r="117" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I117" s="611" t="s">
+      <c r="I117" s="595" t="s">
         <v>2011</v>
       </c>
       <c r="J117" s="445" t="s">
@@ -60660,7 +60735,7 @@
       </c>
     </row>
     <row r="118" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I118" s="612"/>
+      <c r="I118" s="596"/>
       <c r="J118" s="431" t="s">
         <v>1941</v>
       </c>
@@ -60686,7 +60761,7 @@
       </c>
     </row>
     <row r="119" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I119" s="612"/>
+      <c r="I119" s="596"/>
       <c r="J119" s="431" t="s">
         <v>1942</v>
       </c>
@@ -60712,7 +60787,7 @@
       </c>
     </row>
     <row r="120" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I120" s="612"/>
+      <c r="I120" s="596"/>
       <c r="J120" s="431" t="s">
         <v>1943</v>
       </c>
@@ -60738,7 +60813,7 @@
       </c>
     </row>
     <row r="121" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I121" s="612"/>
+      <c r="I121" s="596"/>
       <c r="J121" s="431" t="s">
         <v>1944</v>
       </c>
@@ -60764,7 +60839,7 @@
       </c>
     </row>
     <row r="122" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I122" s="612"/>
+      <c r="I122" s="596"/>
       <c r="J122" s="431" t="s">
         <v>1945</v>
       </c>
@@ -60790,7 +60865,7 @@
       </c>
     </row>
     <row r="123" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I123" s="612"/>
+      <c r="I123" s="596"/>
       <c r="J123" s="431" t="s">
         <v>1946</v>
       </c>
@@ -60816,7 +60891,7 @@
       </c>
     </row>
     <row r="124" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I124" s="612"/>
+      <c r="I124" s="596"/>
       <c r="J124" s="431" t="s">
         <v>1947</v>
       </c>
@@ -60842,7 +60917,7 @@
       </c>
     </row>
     <row r="125" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I125" s="612"/>
+      <c r="I125" s="596"/>
       <c r="J125" s="431" t="s">
         <v>1948</v>
       </c>
@@ -60868,7 +60943,7 @@
       </c>
     </row>
     <row r="126" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I126" s="612"/>
+      <c r="I126" s="596"/>
       <c r="J126" s="431" t="s">
         <v>1949</v>
       </c>
@@ -60894,7 +60969,7 @@
       </c>
     </row>
     <row r="127" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I127" s="612"/>
+      <c r="I127" s="596"/>
       <c r="J127" s="431" t="s">
         <v>1950</v>
       </c>
@@ -60920,7 +60995,7 @@
       </c>
     </row>
     <row r="128" spans="9:25" x14ac:dyDescent="0.35">
-      <c r="I128" s="612"/>
+      <c r="I128" s="596"/>
       <c r="J128" s="431" t="s">
         <v>1951</v>
       </c>
@@ -60946,7 +61021,7 @@
       </c>
     </row>
     <row r="129" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I129" s="612"/>
+      <c r="I129" s="596"/>
       <c r="J129" s="431" t="s">
         <v>1952</v>
       </c>
@@ -60972,7 +61047,7 @@
       </c>
     </row>
     <row r="130" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I130" s="612"/>
+      <c r="I130" s="596"/>
       <c r="J130" s="431" t="s">
         <v>1953</v>
       </c>
@@ -60998,7 +61073,7 @@
       </c>
     </row>
     <row r="131" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I131" s="612"/>
+      <c r="I131" s="596"/>
       <c r="J131" s="431" t="s">
         <v>1954</v>
       </c>
@@ -61024,7 +61099,7 @@
       </c>
     </row>
     <row r="132" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I132" s="612"/>
+      <c r="I132" s="596"/>
       <c r="J132" s="431" t="s">
         <v>1955</v>
       </c>
@@ -61050,7 +61125,7 @@
       </c>
     </row>
     <row r="133" spans="9:16" x14ac:dyDescent="0.35">
-      <c r="I133" s="612"/>
+      <c r="I133" s="596"/>
       <c r="J133" s="431" t="s">
         <v>1956</v>
       </c>
@@ -61076,7 +61151,7 @@
       </c>
     </row>
     <row r="134" spans="9:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I134" s="613"/>
+      <c r="I134" s="597"/>
       <c r="J134" s="479" t="s">
         <v>1957</v>
       </c>
@@ -61103,12 +61178,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="I103:I112"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="I117:I134"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="I81:I88"/>
     <mergeCell ref="W22:X23"/>
     <mergeCell ref="Y22:Y23"/>
     <mergeCell ref="S23:T23"/>
@@ -61123,6 +61192,12 @@
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="N22:O23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="I103:I112"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="I117:I134"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="I81:I88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -68083,12 +68158,12 @@
       <c r="F3" s="44" t="s">
         <v>1422</v>
       </c>
-      <c r="I3" s="558" t="s">
+      <c r="I3" s="525" t="s">
         <v>1469</v>
       </c>
-      <c r="J3" s="558"/>
-      <c r="K3" s="558"/>
-      <c r="L3" s="558"/>
+      <c r="J3" s="525"/>
+      <c r="K3" s="525"/>
+      <c r="L3" s="525"/>
       <c r="O3" s="437" t="s">
         <v>1470</v>
       </c>
@@ -68116,21 +68191,21 @@
       <c r="H4" s="433">
         <v>1</v>
       </c>
-      <c r="I4" s="559" t="s">
+      <c r="I4" s="530" t="s">
         <v>1158</v>
       </c>
-      <c r="J4" s="560"/>
-      <c r="K4" s="560"/>
-      <c r="L4" s="561"/>
+      <c r="J4" s="531"/>
+      <c r="K4" s="531"/>
+      <c r="L4" s="532"/>
       <c r="N4" s="364">
         <v>1</v>
       </c>
-      <c r="O4" s="532" t="s">
+      <c r="O4" s="549" t="s">
         <v>1129</v>
       </c>
-      <c r="P4" s="533"/>
-      <c r="Q4" s="533"/>
-      <c r="R4" s="534"/>
+      <c r="P4" s="550"/>
+      <c r="Q4" s="550"/>
+      <c r="R4" s="551"/>
       <c r="S4" s="439"/>
       <c r="T4" s="439"/>
       <c r="U4" s="439"/>
@@ -68176,19 +68251,19 @@
       <c r="H5" s="433">
         <v>2</v>
       </c>
-      <c r="I5" s="544"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="545"/>
-      <c r="L5" s="546"/>
+      <c r="I5" s="543"/>
+      <c r="J5" s="544"/>
+      <c r="K5" s="544"/>
+      <c r="L5" s="545"/>
       <c r="N5" s="364">
         <v>2</v>
       </c>
-      <c r="O5" s="525" t="s">
+      <c r="O5" s="552" t="s">
         <v>1130</v>
       </c>
-      <c r="P5" s="526"/>
-      <c r="Q5" s="526"/>
-      <c r="R5" s="527"/>
+      <c r="P5" s="553"/>
+      <c r="Q5" s="553"/>
+      <c r="R5" s="554"/>
     </row>
     <row r="6" spans="2:44" s="364" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="420" t="s">
@@ -68209,19 +68284,19 @@
       <c r="H6" s="433">
         <v>3</v>
       </c>
-      <c r="I6" s="544"/>
-      <c r="J6" s="545"/>
-      <c r="K6" s="545"/>
-      <c r="L6" s="546"/>
+      <c r="I6" s="543"/>
+      <c r="J6" s="544"/>
+      <c r="K6" s="544"/>
+      <c r="L6" s="545"/>
       <c r="N6" s="364">
         <v>3</v>
       </c>
-      <c r="O6" s="525" t="s">
+      <c r="O6" s="552" t="s">
         <v>1131</v>
       </c>
-      <c r="P6" s="526"/>
-      <c r="Q6" s="526"/>
-      <c r="R6" s="527"/>
+      <c r="P6" s="553"/>
+      <c r="Q6" s="553"/>
+      <c r="R6" s="554"/>
     </row>
     <row r="7" spans="2:44" s="364" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="419" t="s">
@@ -68242,19 +68317,19 @@
       <c r="H7" s="433">
         <v>4</v>
       </c>
-      <c r="I7" s="544"/>
-      <c r="J7" s="545"/>
-      <c r="K7" s="545"/>
-      <c r="L7" s="546"/>
+      <c r="I7" s="543"/>
+      <c r="J7" s="544"/>
+      <c r="K7" s="544"/>
+      <c r="L7" s="545"/>
       <c r="N7" s="364">
         <v>4</v>
       </c>
-      <c r="O7" s="525" t="s">
+      <c r="O7" s="552" t="s">
         <v>1132</v>
       </c>
-      <c r="P7" s="526"/>
-      <c r="Q7" s="526"/>
-      <c r="R7" s="527"/>
+      <c r="P7" s="553"/>
+      <c r="Q7" s="553"/>
+      <c r="R7" s="554"/>
     </row>
     <row r="8" spans="2:44" s="364" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="419" t="s">
@@ -68275,19 +68350,19 @@
       <c r="H8" s="433">
         <v>5</v>
       </c>
-      <c r="I8" s="544"/>
-      <c r="J8" s="545"/>
-      <c r="K8" s="545"/>
-      <c r="L8" s="546"/>
+      <c r="I8" s="543"/>
+      <c r="J8" s="544"/>
+      <c r="K8" s="544"/>
+      <c r="L8" s="545"/>
       <c r="N8" s="364">
         <v>5</v>
       </c>
-      <c r="O8" s="525" t="s">
+      <c r="O8" s="552" t="s">
         <v>1133</v>
       </c>
-      <c r="P8" s="526"/>
-      <c r="Q8" s="526"/>
-      <c r="R8" s="527"/>
+      <c r="P8" s="553"/>
+      <c r="Q8" s="553"/>
+      <c r="R8" s="554"/>
     </row>
     <row r="9" spans="2:44" s="364" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="419" t="s">
@@ -68308,19 +68383,19 @@
       <c r="H9" s="433">
         <v>6</v>
       </c>
-      <c r="I9" s="544"/>
-      <c r="J9" s="545"/>
-      <c r="K9" s="545"/>
-      <c r="L9" s="546"/>
+      <c r="I9" s="543"/>
+      <c r="J9" s="544"/>
+      <c r="K9" s="544"/>
+      <c r="L9" s="545"/>
       <c r="N9" s="364">
         <v>6</v>
       </c>
-      <c r="O9" s="525" t="s">
+      <c r="O9" s="552" t="s">
         <v>1134</v>
       </c>
-      <c r="P9" s="526"/>
-      <c r="Q9" s="526"/>
-      <c r="R9" s="527"/>
+      <c r="P9" s="553"/>
+      <c r="Q9" s="553"/>
+      <c r="R9" s="554"/>
     </row>
     <row r="10" spans="2:44" s="364" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="419" t="s">
@@ -68341,19 +68416,19 @@
       <c r="H10" s="433">
         <v>7</v>
       </c>
-      <c r="I10" s="544"/>
-      <c r="J10" s="545"/>
-      <c r="K10" s="545"/>
-      <c r="L10" s="546"/>
+      <c r="I10" s="543"/>
+      <c r="J10" s="544"/>
+      <c r="K10" s="544"/>
+      <c r="L10" s="545"/>
       <c r="N10" s="364">
         <v>7</v>
       </c>
-      <c r="O10" s="525" t="s">
+      <c r="O10" s="552" t="s">
         <v>1138</v>
       </c>
-      <c r="P10" s="526"/>
-      <c r="Q10" s="526"/>
-      <c r="R10" s="527"/>
+      <c r="P10" s="553"/>
+      <c r="Q10" s="553"/>
+      <c r="R10" s="554"/>
     </row>
     <row r="11" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="47" t="s">
@@ -68374,19 +68449,19 @@
       <c r="H11" s="433">
         <v>8</v>
       </c>
-      <c r="I11" s="547"/>
-      <c r="J11" s="548"/>
-      <c r="K11" s="548"/>
-      <c r="L11" s="549"/>
+      <c r="I11" s="546"/>
+      <c r="J11" s="547"/>
+      <c r="K11" s="547"/>
+      <c r="L11" s="548"/>
       <c r="N11" s="364">
         <v>8</v>
       </c>
-      <c r="O11" s="525" t="s">
+      <c r="O11" s="552" t="s">
         <v>1139</v>
       </c>
-      <c r="P11" s="526"/>
-      <c r="Q11" s="526"/>
-      <c r="R11" s="527"/>
+      <c r="P11" s="553"/>
+      <c r="Q11" s="553"/>
+      <c r="R11" s="554"/>
     </row>
     <row r="12" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B12" s="38" t="s">
@@ -68404,41 +68479,41 @@
       <c r="H12" s="433">
         <v>9</v>
       </c>
-      <c r="I12" s="538" t="s">
+      <c r="I12" s="533" t="s">
         <v>1160</v>
       </c>
-      <c r="J12" s="539"/>
-      <c r="K12" s="539"/>
-      <c r="L12" s="540"/>
+      <c r="J12" s="534"/>
+      <c r="K12" s="534"/>
+      <c r="L12" s="535"/>
       <c r="N12" s="364">
         <v>9</v>
       </c>
-      <c r="O12" s="525" t="s">
+      <c r="O12" s="552" t="s">
         <v>1145</v>
       </c>
-      <c r="P12" s="526"/>
-      <c r="Q12" s="526"/>
-      <c r="R12" s="527"/>
+      <c r="P12" s="553"/>
+      <c r="Q12" s="553"/>
+      <c r="R12" s="554"/>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.35">
       <c r="H13" s="433">
         <v>10</v>
       </c>
-      <c r="I13" s="538" t="s">
+      <c r="I13" s="533" t="s">
         <v>1162</v>
       </c>
-      <c r="J13" s="539"/>
-      <c r="K13" s="539"/>
-      <c r="L13" s="540"/>
+      <c r="J13" s="534"/>
+      <c r="K13" s="534"/>
+      <c r="L13" s="535"/>
       <c r="N13" s="364">
         <v>10</v>
       </c>
-      <c r="O13" s="525" t="s">
+      <c r="O13" s="552" t="s">
         <v>1146</v>
       </c>
-      <c r="P13" s="526"/>
-      <c r="Q13" s="526"/>
-      <c r="R13" s="527"/>
+      <c r="P13" s="553"/>
+      <c r="Q13" s="553"/>
+      <c r="R13" s="554"/>
     </row>
     <row r="14" spans="2:44" s="364" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="57" t="s">
@@ -68453,21 +68528,21 @@
       <c r="H14" s="433">
         <v>11</v>
       </c>
-      <c r="I14" s="538" t="s">
+      <c r="I14" s="533" t="s">
         <v>1163</v>
       </c>
-      <c r="J14" s="539"/>
-      <c r="K14" s="539"/>
-      <c r="L14" s="540"/>
+      <c r="J14" s="534"/>
+      <c r="K14" s="534"/>
+      <c r="L14" s="535"/>
       <c r="N14" s="364">
         <v>11</v>
       </c>
-      <c r="O14" s="525" t="s">
+      <c r="O14" s="552" t="s">
         <v>1147</v>
       </c>
-      <c r="P14" s="526"/>
-      <c r="Q14" s="526"/>
-      <c r="R14" s="527"/>
+      <c r="P14" s="553"/>
+      <c r="Q14" s="553"/>
+      <c r="R14" s="554"/>
     </row>
     <row r="15" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B15" s="364" t="s">
@@ -68483,21 +68558,21 @@
       <c r="H15" s="433">
         <v>12</v>
       </c>
-      <c r="I15" s="538" t="s">
+      <c r="I15" s="533" t="s">
         <v>1165</v>
       </c>
-      <c r="J15" s="539"/>
-      <c r="K15" s="539"/>
-      <c r="L15" s="540"/>
+      <c r="J15" s="534"/>
+      <c r="K15" s="534"/>
+      <c r="L15" s="535"/>
       <c r="N15" s="364">
         <v>12</v>
       </c>
-      <c r="O15" s="525" t="s">
+      <c r="O15" s="552" t="s">
         <v>1148</v>
       </c>
-      <c r="P15" s="526"/>
-      <c r="Q15" s="526"/>
-      <c r="R15" s="527"/>
+      <c r="P15" s="553"/>
+      <c r="Q15" s="553"/>
+      <c r="R15" s="554"/>
     </row>
     <row r="16" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="57" t="s">
@@ -68513,27 +68588,27 @@
       <c r="H16" s="433">
         <v>13</v>
       </c>
-      <c r="I16" s="538" t="s">
+      <c r="I16" s="533" t="s">
         <v>1164</v>
       </c>
-      <c r="J16" s="539" t="s">
+      <c r="J16" s="534" t="s">
         <v>1164</v>
       </c>
-      <c r="K16" s="539" t="s">
+      <c r="K16" s="534" t="s">
         <v>1164</v>
       </c>
-      <c r="L16" s="540" t="s">
+      <c r="L16" s="535" t="s">
         <v>1164</v>
       </c>
       <c r="N16" s="364">
         <v>13</v>
       </c>
-      <c r="O16" s="528" t="s">
+      <c r="O16" s="555" t="s">
         <v>1153</v>
       </c>
-      <c r="P16" s="529"/>
-      <c r="Q16" s="529"/>
-      <c r="R16" s="530"/>
+      <c r="P16" s="556"/>
+      <c r="Q16" s="556"/>
+      <c r="R16" s="557"/>
       <c r="S16" s="182"/>
       <c r="T16" s="182"/>
       <c r="U16" s="182"/>
@@ -68575,27 +68650,27 @@
       <c r="H17" s="433">
         <v>14</v>
       </c>
-      <c r="I17" s="538" t="s">
+      <c r="I17" s="533" t="s">
         <v>1170</v>
       </c>
-      <c r="J17" s="539" t="s">
+      <c r="J17" s="534" t="s">
         <v>1170</v>
       </c>
-      <c r="K17" s="539" t="s">
+      <c r="K17" s="534" t="s">
         <v>1170</v>
       </c>
-      <c r="L17" s="540" t="s">
+      <c r="L17" s="535" t="s">
         <v>1170</v>
       </c>
-      <c r="N17" s="531">
+      <c r="N17" s="561">
         <v>14</v>
       </c>
-      <c r="O17" s="535" t="s">
+      <c r="O17" s="558" t="s">
         <v>1154</v>
       </c>
-      <c r="P17" s="536"/>
-      <c r="Q17" s="536"/>
-      <c r="R17" s="537"/>
+      <c r="P17" s="559"/>
+      <c r="Q17" s="559"/>
+      <c r="R17" s="560"/>
       <c r="S17" s="438"/>
       <c r="T17" s="438"/>
       <c r="U17" s="438"/>
@@ -68638,19 +68713,19 @@
       <c r="H18" s="433">
         <v>15</v>
       </c>
-      <c r="I18" s="538" t="s">
+      <c r="I18" s="533" t="s">
         <v>1173</v>
       </c>
-      <c r="J18" s="539" t="s">
+      <c r="J18" s="534" t="s">
         <v>1173</v>
       </c>
-      <c r="K18" s="539" t="s">
+      <c r="K18" s="534" t="s">
         <v>1173</v>
       </c>
-      <c r="L18" s="540" t="s">
+      <c r="L18" s="535" t="s">
         <v>1173</v>
       </c>
-      <c r="N18" s="531"/>
+      <c r="N18" s="561"/>
       <c r="O18" s="443" t="s">
         <v>1176</v>
       </c>
@@ -68756,19 +68831,19 @@
       <c r="H19" s="433">
         <v>16</v>
       </c>
-      <c r="I19" s="538" t="s">
+      <c r="I19" s="533" t="s">
         <v>1174</v>
       </c>
-      <c r="J19" s="539" t="s">
+      <c r="J19" s="534" t="s">
         <v>1174</v>
       </c>
-      <c r="K19" s="539" t="s">
+      <c r="K19" s="534" t="s">
         <v>1174</v>
       </c>
-      <c r="L19" s="540" t="s">
+      <c r="L19" s="535" t="s">
         <v>1174</v>
       </c>
-      <c r="N19" s="531"/>
+      <c r="N19" s="561"/>
       <c r="O19" s="440" t="s">
         <v>1437</v>
       </c>
@@ -68874,16 +68949,16 @@
       <c r="H20" s="433">
         <v>17</v>
       </c>
-      <c r="I20" s="538" t="s">
+      <c r="I20" s="533" t="s">
         <v>1215</v>
       </c>
-      <c r="J20" s="539" t="s">
+      <c r="J20" s="534" t="s">
         <v>1215</v>
       </c>
-      <c r="K20" s="539" t="s">
+      <c r="K20" s="534" t="s">
         <v>1215</v>
       </c>
-      <c r="L20" s="540" t="s">
+      <c r="L20" s="535" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -68891,16 +68966,16 @@
       <c r="H21" s="433">
         <v>18</v>
       </c>
-      <c r="I21" s="538" t="s">
+      <c r="I21" s="533" t="s">
         <v>1216</v>
       </c>
-      <c r="J21" s="539" t="s">
+      <c r="J21" s="534" t="s">
         <v>1216</v>
       </c>
-      <c r="K21" s="539" t="s">
+      <c r="K21" s="534" t="s">
         <v>1216</v>
       </c>
-      <c r="L21" s="540" t="s">
+      <c r="L21" s="535" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -68908,16 +68983,16 @@
       <c r="H22" s="433">
         <v>19</v>
       </c>
-      <c r="I22" s="538" t="s">
+      <c r="I22" s="533" t="s">
         <v>1217</v>
       </c>
-      <c r="J22" s="539" t="s">
+      <c r="J22" s="534" t="s">
         <v>1217</v>
       </c>
-      <c r="K22" s="539" t="s">
+      <c r="K22" s="534" t="s">
         <v>1217</v>
       </c>
-      <c r="L22" s="540" t="s">
+      <c r="L22" s="535" t="s">
         <v>1217</v>
       </c>
       <c r="N22" s="364"/>
@@ -68935,16 +69010,16 @@
       <c r="H23" s="433">
         <v>20</v>
       </c>
-      <c r="I23" s="538" t="s">
+      <c r="I23" s="533" t="s">
         <v>1218</v>
       </c>
-      <c r="J23" s="539" t="s">
+      <c r="J23" s="534" t="s">
         <v>1218</v>
       </c>
-      <c r="K23" s="539" t="s">
+      <c r="K23" s="534" t="s">
         <v>1218</v>
       </c>
-      <c r="L23" s="540" t="s">
+      <c r="L23" s="535" t="s">
         <v>1218</v>
       </c>
       <c r="N23" s="364"/>
@@ -68966,25 +69041,25 @@
       <c r="H24" s="433">
         <v>21</v>
       </c>
-      <c r="I24" s="538" t="s">
+      <c r="I24" s="533" t="s">
         <v>1219</v>
       </c>
-      <c r="J24" s="539" t="s">
+      <c r="J24" s="534" t="s">
         <v>1219</v>
       </c>
-      <c r="K24" s="539" t="s">
+      <c r="K24" s="534" t="s">
         <v>1219</v>
       </c>
-      <c r="L24" s="540" t="s">
+      <c r="L24" s="535" t="s">
         <v>1219</v>
       </c>
       <c r="N24" s="364">
         <v>1</v>
       </c>
-      <c r="O24" s="532"/>
-      <c r="P24" s="533"/>
-      <c r="Q24" s="533"/>
-      <c r="R24" s="534"/>
+      <c r="O24" s="549"/>
+      <c r="P24" s="550"/>
+      <c r="Q24" s="550"/>
+      <c r="R24" s="551"/>
     </row>
     <row r="25" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B25" s="364" t="s">
@@ -68996,162 +69071,162 @@
       <c r="H25" s="433">
         <v>22</v>
       </c>
-      <c r="I25" s="538" t="s">
+      <c r="I25" s="533" t="s">
         <v>1220</v>
       </c>
-      <c r="J25" s="539" t="s">
+      <c r="J25" s="534" t="s">
         <v>1220</v>
       </c>
-      <c r="K25" s="539" t="s">
+      <c r="K25" s="534" t="s">
         <v>1220</v>
       </c>
-      <c r="L25" s="540" t="s">
+      <c r="L25" s="535" t="s">
         <v>1220</v>
       </c>
       <c r="N25" s="364">
         <v>2</v>
       </c>
-      <c r="O25" s="525"/>
-      <c r="P25" s="526"/>
-      <c r="Q25" s="526"/>
-      <c r="R25" s="527"/>
+      <c r="O25" s="552"/>
+      <c r="P25" s="553"/>
+      <c r="Q25" s="553"/>
+      <c r="R25" s="554"/>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.35">
       <c r="H26" s="433">
         <v>23</v>
       </c>
-      <c r="I26" s="538" t="s">
+      <c r="I26" s="533" t="s">
         <v>1221</v>
       </c>
-      <c r="J26" s="539" t="s">
+      <c r="J26" s="534" t="s">
         <v>1221</v>
       </c>
-      <c r="K26" s="539" t="s">
+      <c r="K26" s="534" t="s">
         <v>1221</v>
       </c>
-      <c r="L26" s="540" t="s">
+      <c r="L26" s="535" t="s">
         <v>1221</v>
       </c>
       <c r="N26" s="364">
         <v>3</v>
       </c>
-      <c r="O26" s="525"/>
-      <c r="P26" s="526"/>
-      <c r="Q26" s="526"/>
-      <c r="R26" s="527"/>
+      <c r="O26" s="552"/>
+      <c r="P26" s="553"/>
+      <c r="Q26" s="553"/>
+      <c r="R26" s="554"/>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.35">
       <c r="H27" s="433">
         <v>24</v>
       </c>
-      <c r="I27" s="538" t="s">
+      <c r="I27" s="533" t="s">
         <v>1222</v>
       </c>
-      <c r="J27" s="539" t="s">
+      <c r="J27" s="534" t="s">
         <v>1222</v>
       </c>
-      <c r="K27" s="539" t="s">
+      <c r="K27" s="534" t="s">
         <v>1222</v>
       </c>
-      <c r="L27" s="540" t="s">
+      <c r="L27" s="535" t="s">
         <v>1222</v>
       </c>
       <c r="N27" s="364">
         <v>4</v>
       </c>
-      <c r="O27" s="525"/>
-      <c r="P27" s="526"/>
-      <c r="Q27" s="526"/>
-      <c r="R27" s="527"/>
+      <c r="O27" s="552"/>
+      <c r="P27" s="553"/>
+      <c r="Q27" s="553"/>
+      <c r="R27" s="554"/>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.35">
       <c r="H28" s="433">
         <v>25</v>
       </c>
-      <c r="I28" s="538" t="s">
+      <c r="I28" s="533" t="s">
         <v>1231</v>
       </c>
-      <c r="J28" s="539" t="s">
+      <c r="J28" s="534" t="s">
         <v>1231</v>
       </c>
-      <c r="K28" s="539" t="s">
+      <c r="K28" s="534" t="s">
         <v>1231</v>
       </c>
-      <c r="L28" s="540" t="s">
+      <c r="L28" s="535" t="s">
         <v>1231</v>
       </c>
       <c r="N28" s="364">
         <v>5</v>
       </c>
-      <c r="O28" s="525"/>
-      <c r="P28" s="526"/>
-      <c r="Q28" s="526"/>
-      <c r="R28" s="527"/>
+      <c r="O28" s="552"/>
+      <c r="P28" s="553"/>
+      <c r="Q28" s="553"/>
+      <c r="R28" s="554"/>
     </row>
     <row r="29" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H29" s="433">
         <v>26</v>
       </c>
-      <c r="I29" s="538" t="s">
+      <c r="I29" s="533" t="s">
         <v>1234</v>
       </c>
-      <c r="J29" s="539" t="s">
+      <c r="J29" s="534" t="s">
         <v>1234</v>
       </c>
-      <c r="K29" s="539" t="s">
+      <c r="K29" s="534" t="s">
         <v>1234</v>
       </c>
-      <c r="L29" s="540" t="s">
+      <c r="L29" s="535" t="s">
         <v>1234</v>
       </c>
       <c r="N29" s="364">
         <v>6</v>
       </c>
-      <c r="O29" s="528"/>
-      <c r="P29" s="529"/>
-      <c r="Q29" s="529"/>
-      <c r="R29" s="530"/>
+      <c r="O29" s="555"/>
+      <c r="P29" s="556"/>
+      <c r="Q29" s="556"/>
+      <c r="R29" s="557"/>
     </row>
     <row r="30" spans="2:45" x14ac:dyDescent="0.35">
       <c r="H30" s="433">
         <v>27</v>
       </c>
-      <c r="I30" s="554" t="s">
+      <c r="I30" s="526" t="s">
         <v>1235</v>
       </c>
-      <c r="J30" s="555"/>
-      <c r="K30" s="556" t="s">
+      <c r="J30" s="527"/>
+      <c r="K30" s="528" t="s">
         <v>1238</v>
       </c>
-      <c r="L30" s="557"/>
+      <c r="L30" s="529"/>
       <c r="N30" s="364"/>
     </row>
     <row r="31" spans="2:45" x14ac:dyDescent="0.35">
       <c r="H31" s="433">
         <v>28</v>
       </c>
-      <c r="I31" s="554" t="s">
+      <c r="I31" s="526" t="s">
         <v>1241</v>
       </c>
-      <c r="J31" s="555"/>
-      <c r="K31" s="556" t="s">
+      <c r="J31" s="527"/>
+      <c r="K31" s="528" t="s">
         <v>1280</v>
       </c>
-      <c r="L31" s="557"/>
+      <c r="L31" s="529"/>
       <c r="N31" s="364"/>
     </row>
     <row r="32" spans="2:45" x14ac:dyDescent="0.35">
       <c r="H32" s="433">
         <v>29</v>
       </c>
-      <c r="I32" s="554" t="s">
+      <c r="I32" s="526" t="s">
         <v>1281</v>
       </c>
-      <c r="J32" s="555"/>
-      <c r="K32" s="556" t="s">
+      <c r="J32" s="527"/>
+      <c r="K32" s="528" t="s">
         <v>1282</v>
       </c>
-      <c r="L32" s="557"/>
+      <c r="L32" s="529"/>
       <c r="N32" s="364"/>
       <c r="O32" s="193" t="s">
         <v>1468</v>
@@ -69161,14 +69236,14 @@
       <c r="H33" s="433">
         <v>30</v>
       </c>
-      <c r="I33" s="554" t="s">
+      <c r="I33" s="526" t="s">
         <v>1283</v>
       </c>
-      <c r="J33" s="555"/>
-      <c r="K33" s="556" t="s">
+      <c r="J33" s="527"/>
+      <c r="K33" s="528" t="s">
         <v>1284</v>
       </c>
-      <c r="L33" s="557"/>
+      <c r="L33" s="529"/>
       <c r="N33" s="364"/>
       <c r="O33" s="437" t="s">
         <v>1471</v>
@@ -69181,121 +69256,121 @@
       <c r="H34" s="433">
         <v>31</v>
       </c>
-      <c r="I34" s="550" t="s">
+      <c r="I34" s="536" t="s">
         <v>1285</v>
       </c>
-      <c r="J34" s="551"/>
-      <c r="K34" s="552" t="s">
+      <c r="J34" s="537"/>
+      <c r="K34" s="538" t="s">
         <v>1286</v>
       </c>
-      <c r="L34" s="553"/>
+      <c r="L34" s="539"/>
       <c r="N34" s="364">
         <v>1</v>
       </c>
-      <c r="O34" s="532"/>
-      <c r="P34" s="533"/>
-      <c r="Q34" s="533"/>
-      <c r="R34" s="534"/>
+      <c r="O34" s="549"/>
+      <c r="P34" s="550"/>
+      <c r="Q34" s="550"/>
+      <c r="R34" s="551"/>
     </row>
     <row r="35" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H35" s="433">
         <v>32</v>
       </c>
-      <c r="I35" s="550" t="s">
+      <c r="I35" s="536" t="s">
         <v>1301</v>
       </c>
-      <c r="J35" s="551"/>
-      <c r="K35" s="552" t="s">
+      <c r="J35" s="537"/>
+      <c r="K35" s="538" t="s">
         <v>1302</v>
       </c>
-      <c r="L35" s="553"/>
+      <c r="L35" s="539"/>
       <c r="N35" s="364">
         <v>2</v>
       </c>
-      <c r="O35" s="525"/>
-      <c r="P35" s="526"/>
-      <c r="Q35" s="526"/>
-      <c r="R35" s="527"/>
+      <c r="O35" s="552"/>
+      <c r="P35" s="553"/>
+      <c r="Q35" s="553"/>
+      <c r="R35" s="554"/>
     </row>
     <row r="36" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H36" s="433">
         <v>33</v>
       </c>
-      <c r="I36" s="550" t="s">
+      <c r="I36" s="536" t="s">
         <v>1303</v>
       </c>
-      <c r="J36" s="551"/>
-      <c r="K36" s="552" t="s">
+      <c r="J36" s="537"/>
+      <c r="K36" s="538" t="s">
         <v>1308</v>
       </c>
-      <c r="L36" s="553"/>
+      <c r="L36" s="539"/>
       <c r="N36" s="364">
         <v>3</v>
       </c>
-      <c r="O36" s="525"/>
-      <c r="P36" s="526"/>
-      <c r="Q36" s="526"/>
-      <c r="R36" s="527"/>
+      <c r="O36" s="552"/>
+      <c r="P36" s="553"/>
+      <c r="Q36" s="553"/>
+      <c r="R36" s="554"/>
     </row>
     <row r="37" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H37" s="433">
         <v>34</v>
       </c>
-      <c r="I37" s="550" t="s">
+      <c r="I37" s="536" t="s">
         <v>1309</v>
       </c>
-      <c r="J37" s="551"/>
-      <c r="K37" s="552" t="s">
+      <c r="J37" s="537"/>
+      <c r="K37" s="538" t="s">
         <v>1310</v>
       </c>
-      <c r="L37" s="553"/>
+      <c r="L37" s="539"/>
       <c r="N37" s="364">
         <v>4</v>
       </c>
-      <c r="O37" s="525"/>
-      <c r="P37" s="526"/>
-      <c r="Q37" s="526"/>
-      <c r="R37" s="527"/>
+      <c r="O37" s="552"/>
+      <c r="P37" s="553"/>
+      <c r="Q37" s="553"/>
+      <c r="R37" s="554"/>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H38" s="433">
         <v>35</v>
       </c>
-      <c r="I38" s="550" t="s">
+      <c r="I38" s="536" t="s">
         <v>1321</v>
       </c>
-      <c r="J38" s="551"/>
-      <c r="K38" s="552" t="s">
+      <c r="J38" s="537"/>
+      <c r="K38" s="538" t="s">
         <v>1322</v>
       </c>
-      <c r="L38" s="553"/>
+      <c r="L38" s="539"/>
       <c r="N38" s="364">
         <v>5</v>
       </c>
-      <c r="O38" s="525"/>
-      <c r="P38" s="526"/>
-      <c r="Q38" s="526"/>
-      <c r="R38" s="527"/>
+      <c r="O38" s="552"/>
+      <c r="P38" s="553"/>
+      <c r="Q38" s="553"/>
+      <c r="R38" s="554"/>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H39" s="433">
         <v>36</v>
       </c>
-      <c r="I39" s="550" t="s">
+      <c r="I39" s="536" t="s">
         <v>1319</v>
       </c>
-      <c r="J39" s="551"/>
-      <c r="K39" s="552" t="s">
+      <c r="J39" s="537"/>
+      <c r="K39" s="538" t="s">
         <v>1320</v>
       </c>
-      <c r="L39" s="553"/>
+      <c r="L39" s="539"/>
       <c r="N39" s="364">
         <v>6</v>
       </c>
-      <c r="O39" s="525"/>
-      <c r="P39" s="526"/>
-      <c r="Q39" s="526"/>
-      <c r="R39" s="527"/>
+      <c r="O39" s="552"/>
+      <c r="P39" s="553"/>
+      <c r="Q39" s="553"/>
+      <c r="R39" s="554"/>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H40" s="433">
@@ -69316,10 +69391,10 @@
       <c r="N40" s="364">
         <v>7</v>
       </c>
-      <c r="O40" s="525"/>
-      <c r="P40" s="526"/>
-      <c r="Q40" s="526"/>
-      <c r="R40" s="527"/>
+      <c r="O40" s="552"/>
+      <c r="P40" s="553"/>
+      <c r="Q40" s="553"/>
+      <c r="R40" s="554"/>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H41" s="433">
@@ -69340,10 +69415,10 @@
       <c r="N41" s="364">
         <v>8</v>
       </c>
-      <c r="O41" s="525"/>
-      <c r="P41" s="526"/>
-      <c r="Q41" s="526"/>
-      <c r="R41" s="527"/>
+      <c r="O41" s="552"/>
+      <c r="P41" s="553"/>
+      <c r="Q41" s="553"/>
+      <c r="R41" s="554"/>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H42" s="433">
@@ -69364,190 +69439,190 @@
       <c r="N42" s="364">
         <v>9</v>
       </c>
-      <c r="O42" s="525"/>
-      <c r="P42" s="526"/>
-      <c r="Q42" s="526"/>
-      <c r="R42" s="527"/>
+      <c r="O42" s="552"/>
+      <c r="P42" s="553"/>
+      <c r="Q42" s="553"/>
+      <c r="R42" s="554"/>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H43" s="433">
         <v>40</v>
       </c>
-      <c r="I43" s="538" t="s">
+      <c r="I43" s="533" t="s">
         <v>1331</v>
       </c>
-      <c r="J43" s="539"/>
-      <c r="K43" s="539"/>
-      <c r="L43" s="540"/>
+      <c r="J43" s="534"/>
+      <c r="K43" s="534"/>
+      <c r="L43" s="535"/>
       <c r="N43" s="364">
         <v>10</v>
       </c>
-      <c r="O43" s="525"/>
-      <c r="P43" s="526"/>
-      <c r="Q43" s="526"/>
-      <c r="R43" s="527"/>
+      <c r="O43" s="552"/>
+      <c r="P43" s="553"/>
+      <c r="Q43" s="553"/>
+      <c r="R43" s="554"/>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H44" s="433">
         <v>41</v>
       </c>
-      <c r="I44" s="538" t="s">
+      <c r="I44" s="533" t="s">
         <v>1332</v>
       </c>
-      <c r="J44" s="539"/>
-      <c r="K44" s="539"/>
-      <c r="L44" s="540"/>
+      <c r="J44" s="534"/>
+      <c r="K44" s="534"/>
+      <c r="L44" s="535"/>
       <c r="N44" s="364">
         <v>11</v>
       </c>
-      <c r="O44" s="525"/>
-      <c r="P44" s="526"/>
-      <c r="Q44" s="526"/>
-      <c r="R44" s="527"/>
+      <c r="O44" s="552"/>
+      <c r="P44" s="553"/>
+      <c r="Q44" s="553"/>
+      <c r="R44" s="554"/>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H45" s="433">
         <v>42</v>
       </c>
-      <c r="I45" s="538" t="s">
+      <c r="I45" s="533" t="s">
         <v>1335</v>
       </c>
-      <c r="J45" s="539"/>
-      <c r="K45" s="539"/>
-      <c r="L45" s="540"/>
+      <c r="J45" s="534"/>
+      <c r="K45" s="534"/>
+      <c r="L45" s="535"/>
       <c r="N45" s="364">
         <v>12</v>
       </c>
-      <c r="O45" s="525"/>
-      <c r="P45" s="526"/>
-      <c r="Q45" s="526"/>
-      <c r="R45" s="527"/>
+      <c r="O45" s="552"/>
+      <c r="P45" s="553"/>
+      <c r="Q45" s="553"/>
+      <c r="R45" s="554"/>
     </row>
     <row r="46" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H46" s="433">
         <v>43</v>
       </c>
-      <c r="I46" s="538" t="s">
+      <c r="I46" s="533" t="s">
         <v>1336</v>
       </c>
-      <c r="J46" s="539"/>
-      <c r="K46" s="539"/>
-      <c r="L46" s="540"/>
+      <c r="J46" s="534"/>
+      <c r="K46" s="534"/>
+      <c r="L46" s="535"/>
       <c r="N46" s="364">
         <v>13</v>
       </c>
-      <c r="O46" s="525"/>
-      <c r="P46" s="526"/>
-      <c r="Q46" s="526"/>
-      <c r="R46" s="527"/>
+      <c r="O46" s="552"/>
+      <c r="P46" s="553"/>
+      <c r="Q46" s="553"/>
+      <c r="R46" s="554"/>
     </row>
     <row r="47" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H47" s="433">
         <v>44</v>
       </c>
-      <c r="I47" s="538" t="s">
+      <c r="I47" s="533" t="s">
         <v>1337</v>
       </c>
-      <c r="J47" s="539"/>
-      <c r="K47" s="539"/>
-      <c r="L47" s="540"/>
+      <c r="J47" s="534"/>
+      <c r="K47" s="534"/>
+      <c r="L47" s="535"/>
       <c r="N47" s="364">
         <v>14</v>
       </c>
-      <c r="O47" s="525"/>
-      <c r="P47" s="526"/>
-      <c r="Q47" s="526"/>
-      <c r="R47" s="527"/>
+      <c r="O47" s="552"/>
+      <c r="P47" s="553"/>
+      <c r="Q47" s="553"/>
+      <c r="R47" s="554"/>
     </row>
     <row r="48" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H48" s="433">
         <v>45</v>
       </c>
-      <c r="I48" s="538" t="s">
+      <c r="I48" s="533" t="s">
         <v>1338</v>
       </c>
-      <c r="J48" s="539"/>
-      <c r="K48" s="539"/>
-      <c r="L48" s="540"/>
+      <c r="J48" s="534"/>
+      <c r="K48" s="534"/>
+      <c r="L48" s="535"/>
       <c r="N48" s="364">
         <v>15</v>
       </c>
-      <c r="O48" s="525"/>
-      <c r="P48" s="526"/>
-      <c r="Q48" s="526"/>
-      <c r="R48" s="527"/>
+      <c r="O48" s="552"/>
+      <c r="P48" s="553"/>
+      <c r="Q48" s="553"/>
+      <c r="R48" s="554"/>
     </row>
     <row r="49" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H49" s="433">
         <v>46</v>
       </c>
-      <c r="I49" s="538" t="s">
+      <c r="I49" s="533" t="s">
         <v>1339</v>
       </c>
-      <c r="J49" s="539"/>
-      <c r="K49" s="539"/>
-      <c r="L49" s="540"/>
+      <c r="J49" s="534"/>
+      <c r="K49" s="534"/>
+      <c r="L49" s="535"/>
       <c r="N49" s="364">
         <v>16</v>
       </c>
-      <c r="O49" s="525"/>
-      <c r="P49" s="526"/>
-      <c r="Q49" s="526"/>
-      <c r="R49" s="527"/>
+      <c r="O49" s="552"/>
+      <c r="P49" s="553"/>
+      <c r="Q49" s="553"/>
+      <c r="R49" s="554"/>
     </row>
     <row r="50" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H50" s="433">
         <v>47</v>
       </c>
-      <c r="I50" s="538" t="s">
+      <c r="I50" s="533" t="s">
         <v>1340</v>
       </c>
-      <c r="J50" s="539"/>
-      <c r="K50" s="539"/>
-      <c r="L50" s="540"/>
+      <c r="J50" s="534"/>
+      <c r="K50" s="534"/>
+      <c r="L50" s="535"/>
       <c r="N50" s="364">
         <v>17</v>
       </c>
-      <c r="O50" s="525"/>
-      <c r="P50" s="526"/>
-      <c r="Q50" s="526"/>
-      <c r="R50" s="527"/>
+      <c r="O50" s="552"/>
+      <c r="P50" s="553"/>
+      <c r="Q50" s="553"/>
+      <c r="R50" s="554"/>
     </row>
     <row r="51" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H51" s="433">
         <v>48</v>
       </c>
-      <c r="I51" s="538" t="s">
+      <c r="I51" s="533" t="s">
         <v>1341</v>
       </c>
-      <c r="J51" s="539"/>
-      <c r="K51" s="539"/>
-      <c r="L51" s="540"/>
+      <c r="J51" s="534"/>
+      <c r="K51" s="534"/>
+      <c r="L51" s="535"/>
       <c r="N51" s="364">
         <v>18</v>
       </c>
-      <c r="O51" s="525"/>
-      <c r="P51" s="526"/>
-      <c r="Q51" s="526"/>
-      <c r="R51" s="527"/>
+      <c r="O51" s="552"/>
+      <c r="P51" s="553"/>
+      <c r="Q51" s="553"/>
+      <c r="R51" s="554"/>
     </row>
     <row r="52" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H52" s="433">
         <v>49</v>
       </c>
-      <c r="I52" s="538" t="s">
+      <c r="I52" s="533" t="s">
         <v>1342</v>
       </c>
-      <c r="J52" s="539"/>
-      <c r="K52" s="539"/>
-      <c r="L52" s="540"/>
+      <c r="J52" s="534"/>
+      <c r="K52" s="534"/>
+      <c r="L52" s="535"/>
       <c r="N52" s="364">
         <v>19</v>
       </c>
-      <c r="O52" s="525"/>
-      <c r="P52" s="526"/>
-      <c r="Q52" s="526"/>
-      <c r="R52" s="527"/>
+      <c r="O52" s="552"/>
+      <c r="P52" s="553"/>
+      <c r="Q52" s="553"/>
+      <c r="R52" s="554"/>
     </row>
     <row r="53" spans="8:18" ht="21" x14ac:dyDescent="0.35">
       <c r="H53" s="433">
@@ -69568,216 +69643,239 @@
       <c r="N53" s="364">
         <v>20</v>
       </c>
-      <c r="O53" s="525"/>
-      <c r="P53" s="526"/>
-      <c r="Q53" s="526"/>
-      <c r="R53" s="527"/>
+      <c r="O53" s="552"/>
+      <c r="P53" s="553"/>
+      <c r="Q53" s="553"/>
+      <c r="R53" s="554"/>
     </row>
     <row r="54" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H54" s="433">
         <v>51</v>
       </c>
-      <c r="I54" s="538" t="s">
+      <c r="I54" s="533" t="s">
         <v>1373</v>
       </c>
-      <c r="J54" s="539"/>
-      <c r="K54" s="539"/>
-      <c r="L54" s="540"/>
+      <c r="J54" s="534"/>
+      <c r="K54" s="534"/>
+      <c r="L54" s="535"/>
       <c r="N54" s="364">
         <v>21</v>
       </c>
-      <c r="O54" s="525"/>
-      <c r="P54" s="526"/>
-      <c r="Q54" s="526"/>
-      <c r="R54" s="527"/>
+      <c r="O54" s="552"/>
+      <c r="P54" s="553"/>
+      <c r="Q54" s="553"/>
+      <c r="R54" s="554"/>
     </row>
     <row r="55" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H55" s="433">
         <v>52</v>
       </c>
-      <c r="I55" s="538" t="s">
+      <c r="I55" s="533" t="s">
         <v>1374</v>
       </c>
-      <c r="J55" s="539"/>
-      <c r="K55" s="539"/>
-      <c r="L55" s="540"/>
+      <c r="J55" s="534"/>
+      <c r="K55" s="534"/>
+      <c r="L55" s="535"/>
       <c r="N55" s="364">
         <v>22</v>
       </c>
-      <c r="O55" s="525"/>
-      <c r="P55" s="526"/>
-      <c r="Q55" s="526"/>
-      <c r="R55" s="527"/>
+      <c r="O55" s="552"/>
+      <c r="P55" s="553"/>
+      <c r="Q55" s="553"/>
+      <c r="R55" s="554"/>
     </row>
     <row r="56" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H56" s="433">
         <v>53</v>
       </c>
-      <c r="I56" s="538" t="s">
+      <c r="I56" s="533" t="s">
         <v>1375</v>
       </c>
-      <c r="J56" s="539"/>
-      <c r="K56" s="539"/>
-      <c r="L56" s="540"/>
+      <c r="J56" s="534"/>
+      <c r="K56" s="534"/>
+      <c r="L56" s="535"/>
       <c r="N56" s="364">
         <v>23</v>
       </c>
-      <c r="O56" s="525"/>
-      <c r="P56" s="526"/>
-      <c r="Q56" s="526"/>
-      <c r="R56" s="527"/>
+      <c r="O56" s="552"/>
+      <c r="P56" s="553"/>
+      <c r="Q56" s="553"/>
+      <c r="R56" s="554"/>
     </row>
     <row r="57" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H57" s="433">
         <v>54</v>
       </c>
-      <c r="I57" s="538" t="s">
+      <c r="I57" s="533" t="s">
         <v>1376</v>
       </c>
-      <c r="J57" s="539"/>
-      <c r="K57" s="539"/>
-      <c r="L57" s="540"/>
+      <c r="J57" s="534"/>
+      <c r="K57" s="534"/>
+      <c r="L57" s="535"/>
       <c r="N57" s="364">
         <v>24</v>
       </c>
-      <c r="O57" s="525"/>
-      <c r="P57" s="526"/>
-      <c r="Q57" s="526"/>
-      <c r="R57" s="527"/>
+      <c r="O57" s="552"/>
+      <c r="P57" s="553"/>
+      <c r="Q57" s="553"/>
+      <c r="R57" s="554"/>
     </row>
     <row r="58" spans="8:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H58" s="433">
         <v>55</v>
       </c>
-      <c r="I58" s="541" t="s">
+      <c r="I58" s="540" t="s">
         <v>1377</v>
       </c>
-      <c r="J58" s="542"/>
-      <c r="K58" s="542"/>
-      <c r="L58" s="543"/>
+      <c r="J58" s="541"/>
+      <c r="K58" s="541"/>
+      <c r="L58" s="542"/>
       <c r="N58" s="364">
         <v>25</v>
       </c>
-      <c r="O58" s="525"/>
-      <c r="P58" s="526"/>
-      <c r="Q58" s="526"/>
-      <c r="R58" s="527"/>
+      <c r="O58" s="552"/>
+      <c r="P58" s="553"/>
+      <c r="Q58" s="553"/>
+      <c r="R58" s="554"/>
     </row>
     <row r="59" spans="8:18" x14ac:dyDescent="0.35">
       <c r="N59" s="364">
         <v>26</v>
       </c>
-      <c r="O59" s="525"/>
-      <c r="P59" s="526"/>
-      <c r="Q59" s="526"/>
-      <c r="R59" s="527"/>
+      <c r="O59" s="552"/>
+      <c r="P59" s="553"/>
+      <c r="Q59" s="553"/>
+      <c r="R59" s="554"/>
     </row>
     <row r="60" spans="8:18" x14ac:dyDescent="0.35">
       <c r="N60" s="364">
         <v>27</v>
       </c>
-      <c r="O60" s="525"/>
-      <c r="P60" s="526"/>
-      <c r="Q60" s="526"/>
-      <c r="R60" s="527"/>
+      <c r="O60" s="552"/>
+      <c r="P60" s="553"/>
+      <c r="Q60" s="553"/>
+      <c r="R60" s="554"/>
     </row>
     <row r="61" spans="8:18" x14ac:dyDescent="0.35">
       <c r="N61" s="364">
         <v>28</v>
       </c>
-      <c r="O61" s="525"/>
-      <c r="P61" s="526"/>
-      <c r="Q61" s="526"/>
-      <c r="R61" s="527"/>
+      <c r="O61" s="552"/>
+      <c r="P61" s="553"/>
+      <c r="Q61" s="553"/>
+      <c r="R61" s="554"/>
     </row>
     <row r="62" spans="8:18" x14ac:dyDescent="0.35">
       <c r="N62" s="364">
         <v>29</v>
       </c>
-      <c r="O62" s="525"/>
-      <c r="P62" s="526"/>
-      <c r="Q62" s="526"/>
-      <c r="R62" s="527"/>
+      <c r="O62" s="552"/>
+      <c r="P62" s="553"/>
+      <c r="Q62" s="553"/>
+      <c r="R62" s="554"/>
     </row>
     <row r="63" spans="8:18" x14ac:dyDescent="0.35">
       <c r="N63" s="364">
         <v>30</v>
       </c>
-      <c r="O63" s="525"/>
-      <c r="P63" s="526"/>
-      <c r="Q63" s="526"/>
-      <c r="R63" s="527"/>
+      <c r="O63" s="552"/>
+      <c r="P63" s="553"/>
+      <c r="Q63" s="553"/>
+      <c r="R63" s="554"/>
     </row>
     <row r="64" spans="8:18" x14ac:dyDescent="0.35">
       <c r="N64" s="364">
         <v>31</v>
       </c>
-      <c r="O64" s="525"/>
-      <c r="P64" s="526"/>
-      <c r="Q64" s="526"/>
-      <c r="R64" s="527"/>
+      <c r="O64" s="552"/>
+      <c r="P64" s="553"/>
+      <c r="Q64" s="553"/>
+      <c r="R64" s="554"/>
     </row>
     <row r="65" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N65" s="364">
         <v>32</v>
       </c>
-      <c r="O65" s="525"/>
-      <c r="P65" s="526"/>
-      <c r="Q65" s="526"/>
-      <c r="R65" s="527"/>
+      <c r="O65" s="552"/>
+      <c r="P65" s="553"/>
+      <c r="Q65" s="553"/>
+      <c r="R65" s="554"/>
     </row>
     <row r="66" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N66" s="364">
         <v>33</v>
       </c>
-      <c r="O66" s="525"/>
-      <c r="P66" s="526"/>
-      <c r="Q66" s="526"/>
-      <c r="R66" s="527"/>
+      <c r="O66" s="552"/>
+      <c r="P66" s="553"/>
+      <c r="Q66" s="553"/>
+      <c r="R66" s="554"/>
     </row>
     <row r="67" spans="14:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N67" s="364">
         <v>34</v>
       </c>
-      <c r="O67" s="528"/>
-      <c r="P67" s="529"/>
-      <c r="Q67" s="529"/>
-      <c r="R67" s="530"/>
+      <c r="O67" s="555"/>
+      <c r="P67" s="556"/>
+      <c r="Q67" s="556"/>
+      <c r="R67" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="O63:R63"/>
+    <mergeCell ref="O64:R64"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="O67:R67"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="O59:R59"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="O61:R61"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="O54:R54"/>
+    <mergeCell ref="O55:R55"/>
+    <mergeCell ref="O56:R56"/>
+    <mergeCell ref="O57:R57"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O17:R17"/>
     <mergeCell ref="I54:L54"/>
     <mergeCell ref="I55:L55"/>
     <mergeCell ref="I56:L56"/>
@@ -69802,61 +69900,38 @@
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="K38:L38"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="O54:R54"/>
-    <mergeCell ref="O55:R55"/>
-    <mergeCell ref="O56:R56"/>
-    <mergeCell ref="O57:R57"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="O46:R46"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O63:R63"/>
-    <mergeCell ref="O64:R64"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="O67:R67"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="O59:R59"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="O61:R61"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Millennium_Important_Documentation/MILL_DATA_STRUCTURES_igs_V2_2020(DRAFT).xlsx
+++ b/Millennium_Important_Documentation/MILL_DATA_STRUCTURES_igs_V2_2020(DRAFT).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\105864\Documents\Millennium\Millennium_Important_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342863C2-A326-45DD-8A55-776DCE7D28DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525E15F6-1319-4F26-A960-FA7CB9993F33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="2353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4404" uniqueCount="2355">
   <si>
     <t>Queue 1</t>
   </si>
@@ -7494,9 +7494,6 @@
     <t>MESSID=53</t>
   </si>
   <si>
-    <t>SEROLM=49</t>
-  </si>
-  <si>
     <t>CHOLM=58</t>
   </si>
   <si>
@@ -7516,6 +7513,15 @@
   </si>
   <si>
     <t>Terminal Number</t>
+  </si>
+  <si>
+    <t>Total Wager Amount to Pay</t>
+  </si>
+  <si>
+    <t>TWTOT_OLM=30</t>
+  </si>
+  <si>
+    <t>SEROLM=13</t>
   </si>
 </sst>
 </file>
@@ -10699,8 +10705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O834"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M202" sqref="M202"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12427,7 +12433,7 @@
         <v>49</v>
       </c>
       <c r="D115" s="66" t="s">
-        <v>2345</v>
+        <v>2354</v>
       </c>
       <c r="F115" s="29">
         <v>49</v>
@@ -12599,7 +12605,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B124" s="2">
         <v>122</v>
@@ -12608,7 +12614,7 @@
         <v>58</v>
       </c>
       <c r="D124" s="65" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="F124" s="30">
         <v>58</v>
@@ -12621,14 +12627,17 @@
       <c r="K124" s="517"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>2352</v>
+      </c>
       <c r="B125" s="2">
         <v>123</v>
       </c>
       <c r="C125" s="30">
         <v>59</v>
       </c>
-      <c r="D125" s="63">
-        <v>30</v>
+      <c r="D125" s="63" t="s">
+        <v>2353</v>
       </c>
       <c r="F125" s="30">
         <v>59</v>
@@ -14086,7 +14095,7 @@
         <v>33</v>
       </c>
       <c r="L195" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="M195">
         <v>1</v>
@@ -14111,7 +14120,7 @@
       <c r="J196" s="8"/>
       <c r="K196" s="517"/>
       <c r="L196" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="M196">
         <v>2</v>
@@ -14136,7 +14145,7 @@
       <c r="J197" s="8"/>
       <c r="K197" s="517"/>
       <c r="L197" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="M197">
         <v>3</v>
@@ -14161,7 +14170,7 @@
       <c r="J198" s="9"/>
       <c r="K198" s="517"/>
       <c r="L198" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="M198">
         <v>4</v>
@@ -14190,7 +14199,7 @@
         <v>34</v>
       </c>
       <c r="L199" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M199">
         <v>5</v>
@@ -14215,7 +14224,7 @@
       <c r="J200" s="4"/>
       <c r="K200" s="517"/>
       <c r="L200" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M200">
         <v>6</v>
@@ -14240,7 +14249,7 @@
       <c r="J201" s="4"/>
       <c r="K201" s="517"/>
       <c r="L201" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M201">
         <v>7</v>
@@ -14265,7 +14274,7 @@
       <c r="J202" s="5"/>
       <c r="K202" s="517"/>
       <c r="L202" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="M202">
         <v>8</v>
@@ -14294,7 +14303,7 @@
         <v>35</v>
       </c>
       <c r="L203" s="364" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="M203">
         <v>9</v>

--- a/Millennium_Important_Documentation/MILL_DATA_STRUCTURES_igs_V2_2020(DRAFT).xlsx
+++ b/Millennium_Important_Documentation/MILL_DATA_STRUCTURES_igs_V2_2020(DRAFT).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\105864\Documents\Millennium\Millennium_Important_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525E15F6-1319-4F26-A960-FA7CB9993F33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2249A8-6AEA-4E9E-B652-FDED2ED75C54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="35880" yWindow="1530" windowWidth="21600" windowHeight="11265" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUEUE" sheetId="1" r:id="rId1"/>
@@ -7488,9 +7488,6 @@
     </r>
   </si>
   <si>
-    <t>Serial number from Olimpo (YYMMDD-MM-NNNNNNNNNN-CCC)</t>
-  </si>
-  <si>
     <t>MESSID=53</t>
   </si>
   <si>
@@ -7522,6 +7519,9 @@
   </si>
   <si>
     <t>SEROLM=13</t>
+  </si>
+  <si>
+    <t>Serial number from Olimpo "Transaction Serial" (YYMMDD-MM-NNNNNNNNNN-CCC)</t>
   </si>
 </sst>
 </file>
@@ -10705,14 +10705,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O834"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.453125" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="1" max="1" width="73.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="1.453125" customWidth="1"/>
@@ -12424,7 +12424,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>2343</v>
+        <v>2354</v>
       </c>
       <c r="B115" s="2">
         <v>113</v>
@@ -12433,7 +12433,7 @@
         <v>49</v>
       </c>
       <c r="D115" s="66" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="F115" s="29">
         <v>49</v>
@@ -12605,7 +12605,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B124" s="2">
         <v>122</v>
@@ -12614,7 +12614,7 @@
         <v>58</v>
       </c>
       <c r="D124" s="65" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="F124" s="30">
         <v>58</v>
@@ -12628,7 +12628,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B125" s="2">
         <v>123</v>
@@ -12637,7 +12637,7 @@
         <v>59</v>
       </c>
       <c r="D125" s="63" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="F125" s="30">
         <v>59</v>
@@ -13595,7 +13595,7 @@
         <v>105</v>
       </c>
       <c r="D171" s="66" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="F171" s="29">
         <v>105</v>
@@ -14095,7 +14095,7 @@
         <v>33</v>
       </c>
       <c r="L195" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M195">
         <v>1</v>
@@ -14120,7 +14120,7 @@
       <c r="J196" s="8"/>
       <c r="K196" s="517"/>
       <c r="L196" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="M196">
         <v>2</v>
@@ -14145,7 +14145,7 @@
       <c r="J197" s="8"/>
       <c r="K197" s="517"/>
       <c r="L197" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="M197">
         <v>3</v>
@@ -14170,7 +14170,7 @@
       <c r="J198" s="9"/>
       <c r="K198" s="517"/>
       <c r="L198" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="M198">
         <v>4</v>
@@ -14199,7 +14199,7 @@
         <v>34</v>
       </c>
       <c r="L199" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="M199">
         <v>5</v>
@@ -14224,7 +14224,7 @@
       <c r="J200" s="4"/>
       <c r="K200" s="517"/>
       <c r="L200" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="M200">
         <v>6</v>
@@ -14249,7 +14249,7 @@
       <c r="J201" s="4"/>
       <c r="K201" s="517"/>
       <c r="L201" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="M201">
         <v>7</v>
@@ -14274,7 +14274,7 @@
       <c r="J202" s="5"/>
       <c r="K202" s="517"/>
       <c r="L202" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M202">
         <v>8</v>
@@ -14303,7 +14303,7 @@
         <v>35</v>
       </c>
       <c r="L203" s="364" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M203">
         <v>9</v>
@@ -49362,8 +49362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B1:AB86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
